--- a/TestCases .xlsx
+++ b/TestCases .xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="266">
   <si>
     <t>Project Name:OpenM4S</t>
   </si>
@@ -789,6 +788,30 @@
   </si>
   <si>
     <t xml:space="preserve"> in invalid format</t>
+  </si>
+  <si>
+    <t>Test Title:Verify if user can't exceed the limit of applying</t>
+  </si>
+  <si>
+    <t>Test Description:Validate the limits</t>
+  </si>
+  <si>
+    <t>Preconditions:User has already applied 2 times</t>
+  </si>
+  <si>
+    <t>Apply for Application/request</t>
+  </si>
+  <si>
+    <t>user should not be</t>
+  </si>
+  <si>
+    <t>able to apply</t>
+  </si>
+  <si>
+    <t>1.User is not able to apply</t>
+  </si>
+  <si>
+    <t>2.User is able to apply</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M430"/>
+  <dimension ref="A1:M439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G407" sqref="G407"/>
+    <sheetView tabSelected="1" topLeftCell="A409" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G440" sqref="G440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,286 +7152,280 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
-      <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
-      <c r="D429" s="1"/>
-      <c r="E429" s="1"/>
-      <c r="F429" s="1"/>
+      <c r="A429" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B429" s="5"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="1"/>
-      <c r="B430" s="1"/>
-      <c r="C430" s="1"/>
-      <c r="D430" s="1"/>
-      <c r="E430" s="1"/>
-      <c r="F430" s="1"/>
+      <c r="A430" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B430" s="4"/>
+      <c r="C430" s="4"/>
+      <c r="D430" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E430" s="4"/>
+      <c r="F430" s="4"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B431" s="4"/>
+      <c r="C431" s="4"/>
+      <c r="D431" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E431" s="4"/>
+      <c r="F431" s="4"/>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B432" s="4"/>
+      <c r="C432" s="4"/>
+      <c r="D432" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E432" s="4"/>
+      <c r="F432" s="4"/>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B433" s="4"/>
+      <c r="C433" s="4"/>
+      <c r="D433" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E433" s="4"/>
+      <c r="F433" s="4"/>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B434" s="4"/>
+      <c r="C434" s="4"/>
+      <c r="D434" s="4"/>
+      <c r="E434" s="4"/>
+      <c r="F434" s="4"/>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>1</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>2</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+      <c r="E438" s="1"/>
+      <c r="F438" s="1"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
+      <c r="E439" s="1"/>
+      <c r="F439" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="418">
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="D402:F402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="D403:F403"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="A398:F398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="D399:F399"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="D400:F400"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="D401:F401"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="A330:F330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="D312:F312"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="A319:F319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="D301:F301"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="D309:F309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="D310:F310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="D308:F308"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="D290:F290"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="D298:F298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="D299:F299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="D300:F300"/>
-    <mergeCell ref="A296:F296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="D297:F297"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="D287:F287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="D288:F288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="D289:F289"/>
-    <mergeCell ref="A285:F285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="D286:F286"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="D267:F267"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="D275:F275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="D276:F276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="D277:F277"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="D274:F274"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="D256:F256"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="D264:F264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="D265:F265"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="D266:F266"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="D263:F263"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="D244:F244"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="D253:F253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="D254:F254"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="D255:F255"/>
-    <mergeCell ref="A251:F251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="D252:F252"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="D241:F241"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="D242:F242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="A239:F239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="D240:F240"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="A228:F228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="D199:F199"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="D196:F196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="D198:F198"/>
-    <mergeCell ref="A194:F194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:F74"/>
+  <mergeCells count="429">
+    <mergeCell ref="A429:F429"/>
+    <mergeCell ref="D434:F434"/>
+    <mergeCell ref="A434:C434"/>
+    <mergeCell ref="D433:F433"/>
+    <mergeCell ref="A433:C433"/>
+    <mergeCell ref="D432:F432"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="D431:F431"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="D430:F430"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A422:C422"/>
+    <mergeCell ref="D422:F422"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="D423:F423"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="D424:F424"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="D425:F425"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="D414:F414"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="D421:F421"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="D410:F410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="D411:F411"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="D412:F412"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="D413:F413"/>
+    <mergeCell ref="D390:F390"/>
+    <mergeCell ref="D389:F389"/>
+    <mergeCell ref="D388:F388"/>
+    <mergeCell ref="D380:F380"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A387:F387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="A389:C389"/>
+    <mergeCell ref="D392:F392"/>
+    <mergeCell ref="D391:F391"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="D367:F367"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="D368:F368"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="D369:F369"/>
+    <mergeCell ref="D379:F379"/>
+    <mergeCell ref="D378:F378"/>
+    <mergeCell ref="D377:F377"/>
+    <mergeCell ref="D376:F376"/>
+    <mergeCell ref="A375:F375"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="D366:F366"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="A353:F353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="D355:F355"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="D356:F356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A341:F341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
@@ -7431,44 +7448,269 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="D196:F196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="A228:F228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="D242:F242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="A239:F239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="D240:F240"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="D244:F244"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="D254:F254"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="D255:F255"/>
+    <mergeCell ref="A251:F251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="D252:F252"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="D256:F256"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="D264:F264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="D265:F265"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="D266:F266"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="D263:F263"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="D267:F267"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="D275:F275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="D276:F276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="D277:F277"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="D274:F274"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="D288:F288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="D289:F289"/>
+    <mergeCell ref="A285:F285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="D286:F286"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="D290:F290"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="D298:F298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="D299:F299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="D300:F300"/>
+    <mergeCell ref="A296:F296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="D297:F297"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="D301:F301"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="D309:F309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="D310:F310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="D308:F308"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="D312:F312"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="A319:F319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="A330:F330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="D402:F402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="D403:F403"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="A398:F398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="D399:F399"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="D400:F400"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="D401:F401"/>
     <mergeCell ref="A343:C343"/>
     <mergeCell ref="D343:F343"/>
     <mergeCell ref="A344:C344"/>
@@ -7477,93 +7719,9 @@
     <mergeCell ref="D345:F345"/>
     <mergeCell ref="A346:C346"/>
     <mergeCell ref="D346:F346"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A341:F341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A69:F69"/>
     <mergeCell ref="D365:F365"/>
     <mergeCell ref="A364:F364"/>
     <mergeCell ref="A365:C365"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="D366:F366"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="A353:F353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="D356:F356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="D367:F367"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="D368:F368"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="D369:F369"/>
-    <mergeCell ref="D390:F390"/>
-    <mergeCell ref="D389:F389"/>
-    <mergeCell ref="D388:F388"/>
-    <mergeCell ref="D380:F380"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A387:F387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="A389:C389"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="A420:F420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="D421:F421"/>
-    <mergeCell ref="A409:F409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="D410:F410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="D411:F411"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="D412:F412"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="D413:F413"/>
-    <mergeCell ref="D379:F379"/>
-    <mergeCell ref="D378:F378"/>
-    <mergeCell ref="D377:F377"/>
-    <mergeCell ref="D376:F376"/>
-    <mergeCell ref="A375:F375"/>
-    <mergeCell ref="D392:F392"/>
-    <mergeCell ref="D391:F391"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="D422:F422"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="D423:F423"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="D424:F424"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="D425:F425"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="D414:F414"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/TestCases .xlsx
+++ b/TestCases .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="298">
   <si>
     <t>Project Name:OpenM4S</t>
   </si>
@@ -812,6 +812,102 @@
   </si>
   <si>
     <t>2.User is able to apply</t>
+  </si>
+  <si>
+    <t>Test Case ID:TC_MCS_36</t>
+  </si>
+  <si>
+    <t>Test Case ID:TC_MCS_37</t>
+  </si>
+  <si>
+    <t>Test Case ID:TC_MCS_39</t>
+  </si>
+  <si>
+    <t>Test Case ID:TC_MCS_40</t>
+  </si>
+  <si>
+    <t>Test Title:Verify if user can search by name</t>
+  </si>
+  <si>
+    <t>Test Description:Validate the search functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the search </t>
+  </si>
+  <si>
+    <t>user should  be</t>
+  </si>
+  <si>
+    <t>able to search</t>
+  </si>
+  <si>
+    <t>1.User is able to search</t>
+  </si>
+  <si>
+    <t>2.User is  not able to search</t>
+  </si>
+  <si>
+    <t>Name of user</t>
+  </si>
+  <si>
+    <t>Test Case ID:TC_MCS_41</t>
+  </si>
+  <si>
+    <t>Test Title:Verify if session doesn't expire before the recommended time</t>
+  </si>
+  <si>
+    <t>Test Description:Validation of session expiry time</t>
+  </si>
+  <si>
+    <t>Preconditions:User has successfully logged in to his profile</t>
+  </si>
+  <si>
+    <t>session should not</t>
+  </si>
+  <si>
+    <t>expire</t>
+  </si>
+  <si>
+    <t>1.session is not expired</t>
+  </si>
+  <si>
+    <t>2.session is expired</t>
+  </si>
+  <si>
+    <t>Test Title:Verify if user can search by id</t>
+  </si>
+  <si>
+    <t>Id of user</t>
+  </si>
+  <si>
+    <t>Test Title:Verify if user can search by location</t>
+  </si>
+  <si>
+    <t>location coordinates</t>
+  </si>
+  <si>
+    <t>Test Case ID:TC_MCS_42</t>
+  </si>
+  <si>
+    <t>Test Case ID:TC_MCS_43</t>
+  </si>
+  <si>
+    <t>Test Title:Verify if user can search by License Type</t>
+  </si>
+  <si>
+    <t>license type</t>
+  </si>
+  <si>
+    <t>Test Case ID:TC_MCS_44</t>
+  </si>
+  <si>
+    <t>Test Case ID:TC_MCS_45</t>
+  </si>
+  <si>
+    <t>Test Title:Verify if Documents are attached directly from scanner</t>
+  </si>
+  <si>
+    <t>Test Description:Validate if Documents are attached directly from scanner</t>
   </si>
 </sst>
 </file>
@@ -909,10 +1005,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1219,17 +1315,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M439"/>
+  <dimension ref="A1:M491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G440" sqref="G440"/>
+    <sheetView tabSelected="1" topLeftCell="A426" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G487" sqref="G487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -1237,14 +1333,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1254,16 +1350,16 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1273,16 +1369,16 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1292,16 +1388,16 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1311,16 +1407,16 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1330,14 +1426,14 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1462,14 +1558,14 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1479,16 +1575,16 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1498,16 +1594,16 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1517,16 +1613,16 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1536,16 +1632,16 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1555,14 +1651,14 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1691,14 +1787,14 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1708,16 +1804,16 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1727,16 +1823,16 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1746,16 +1842,16 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1765,16 +1861,16 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1784,14 +1880,14 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1935,14 +2031,14 @@
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1952,62 +2048,62 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2102,72 +2198,72 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2262,72 +2358,72 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4" t="s">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -2430,72 +2526,72 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4" t="s">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4" t="s">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4" t="s">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2590,72 +2686,72 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4" t="s">
+      <c r="A81" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4" t="s">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4" t="s">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4" t="s">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -2732,72 +2828,72 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4" t="s">
+      <c r="A92" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4" t="s">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4" t="s">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4" t="s">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -2890,72 +2986,72 @@
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4" t="s">
+      <c r="A103" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4" t="s">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4" t="s">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -3054,72 +3150,72 @@
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4" t="s">
+      <c r="A116" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4" t="s">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4" t="s">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4" t="s">
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -3192,72 +3288,72 @@
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4" t="s">
+      <c r="A126" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4" t="s">
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4" t="s">
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4" t="s">
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -3348,72 +3444,72 @@
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4" t="s">
+      <c r="A138" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4" t="s">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4" t="s">
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4" t="s">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -3498,72 +3594,72 @@
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4" t="s">
+      <c r="A149" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4" t="s">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4" t="s">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4" t="s">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -3646,72 +3742,72 @@
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4" t="s">
+      <c r="A160" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4" t="s">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4" t="s">
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4" t="s">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -3796,72 +3892,72 @@
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4" t="s">
+      <c r="A172" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4" t="s">
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4" t="s">
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4" t="s">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
@@ -3946,72 +4042,72 @@
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B183" s="5"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4" t="s">
+      <c r="A184" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4" t="s">
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4" t="s">
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4" t="s">
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+      <c r="A188" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
@@ -4088,72 +4184,72 @@
       <c r="F193" s="1"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B194" s="5"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4" t="s">
+      <c r="A195" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4" t="s">
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4" t="s">
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="A198" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4" t="s">
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -4230,72 +4326,72 @@
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4" t="s">
+      <c r="A206" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4" t="s">
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+      <c r="A208" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4" t="s">
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+      <c r="A209" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4" t="s">
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
@@ -4380,72 +4476,72 @@
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
-      <c r="F217" s="5"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4" t="s">
+      <c r="A218" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="5"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="A219" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4" t="s">
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="5"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="A220" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4" t="s">
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="5"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4" t="s">
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E221" s="4"/>
-      <c r="F221" s="4"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="5"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -4522,72 +4618,72 @@
       <c r="F227" s="1"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4" t="s">
+      <c r="A229" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E229" s="4"/>
-      <c r="F229" s="4"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
+      <c r="A230" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4" t="s">
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E230" s="4"/>
-      <c r="F230" s="4"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
+      <c r="A231" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4" t="s">
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E231" s="4"/>
-      <c r="F231" s="4"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4" t="s">
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E232" s="4"/>
-      <c r="F232" s="4"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+      <c r="A233" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="4"/>
-      <c r="F233" s="4"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -4664,72 +4760,72 @@
       <c r="F238" s="1"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="5" t="s">
+      <c r="A239" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
-      <c r="D240" s="4" t="s">
+      <c r="A240" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4" t="s">
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E241" s="4"/>
-      <c r="F241" s="4"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
+      <c r="A242" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4" t="s">
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E242" s="4"/>
-      <c r="F242" s="4"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
+      <c r="A243" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4" t="s">
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E243" s="4"/>
-      <c r="F243" s="4"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="A244" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4"/>
-      <c r="F244" s="4"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
@@ -4814,72 +4910,72 @@
       <c r="F250" s="1"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B251" s="5"/>
-      <c r="C251" s="5"/>
-      <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
-      <c r="F251" s="5"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4" t="s">
+      <c r="A252" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E252" s="4"/>
-      <c r="F252" s="4"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
+      <c r="A253" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4" t="s">
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E253" s="4"/>
-      <c r="F253" s="4"/>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
+      <c r="A254" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4" t="s">
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E254" s="4"/>
-      <c r="F254" s="4"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4" t="s">
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E255" s="4"/>
-      <c r="F255" s="4"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="4"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
@@ -4956,72 +5052,72 @@
       <c r="F261" s="1"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="5" t="s">
+      <c r="A262" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B262" s="5"/>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
-      <c r="F262" s="5"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4" t="s">
+      <c r="A263" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E263" s="4"/>
-      <c r="F263" s="4"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
+      <c r="A264" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
-      <c r="D264" s="4" t="s">
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E264" s="4"/>
-      <c r="F264" s="4"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
-      <c r="D265" s="4" t="s">
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E265" s="4"/>
-      <c r="F265" s="4"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
+      <c r="A266" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="4" t="s">
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E266" s="4"/>
-      <c r="F266" s="4"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="4"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
@@ -5100,72 +5196,72 @@
       <c r="F272" s="1"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B273" s="5"/>
-      <c r="C273" s="5"/>
-      <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="4" t="s">
+      <c r="A274" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="4" t="s">
+      <c r="A275" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="4" t="s">
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
+      <c r="A276" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4" t="s">
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="4" t="s">
+      <c r="A277" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
-      <c r="D277" s="4" t="s">
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E277" s="4"/>
-      <c r="F277" s="4"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="4" t="s">
+      <c r="A278" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="4"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="5"/>
+      <c r="F278" s="5"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
@@ -5252,72 +5348,72 @@
       <c r="F284" s="1"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B285" s="5"/>
-      <c r="C285" s="5"/>
-      <c r="D285" s="5"/>
-      <c r="E285" s="5"/>
-      <c r="F285" s="5"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="4"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B286" s="4"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="4" t="s">
+      <c r="A286" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E286" s="4"/>
-      <c r="F286" s="4"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
+      <c r="A287" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B287" s="4"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="4" t="s">
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E287" s="4"/>
-      <c r="F287" s="4"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
+      <c r="A288" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="4" t="s">
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E288" s="4"/>
-      <c r="F288" s="4"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B289" s="4"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="4" t="s">
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E289" s="4"/>
-      <c r="F289" s="4"/>
+      <c r="E289" s="5"/>
+      <c r="F289" s="5"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B290" s="4"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="4"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="5"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
@@ -5396,72 +5492,72 @@
       <c r="F295" s="1"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B296" s="5"/>
-      <c r="C296" s="5"/>
-      <c r="D296" s="5"/>
-      <c r="E296" s="5"/>
-      <c r="F296" s="5"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
-      <c r="D297" s="4" t="s">
+      <c r="A297" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E297" s="4"/>
-      <c r="F297" s="4"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
+      <c r="A298" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
-      <c r="D298" s="4" t="s">
+      <c r="B298" s="5"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E298" s="4"/>
-      <c r="F298" s="4"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
+      <c r="A299" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
-      <c r="D299" s="4" t="s">
+      <c r="B299" s="5"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E299" s="4"/>
-      <c r="F299" s="4"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="4" t="s">
+      <c r="A300" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="4" t="s">
+      <c r="B300" s="5"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E300" s="4"/>
-      <c r="F300" s="4"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="4" t="s">
+      <c r="A301" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4"/>
-      <c r="F301" s="4"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
@@ -5540,72 +5636,72 @@
       <c r="F306" s="1"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="5" t="s">
+      <c r="A307" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B307" s="5"/>
-      <c r="C307" s="5"/>
-      <c r="D307" s="5"/>
-      <c r="E307" s="5"/>
-      <c r="F307" s="5"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B308" s="4"/>
-      <c r="C308" s="4"/>
-      <c r="D308" s="4" t="s">
+      <c r="A308" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E308" s="4"/>
-      <c r="F308" s="4"/>
+      <c r="E308" s="5"/>
+      <c r="F308" s="5"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="4" t="s">
+      <c r="A309" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="4"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="4" t="s">
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E309" s="4"/>
-      <c r="F309" s="4"/>
+      <c r="E309" s="5"/>
+      <c r="F309" s="5"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="4" t="s">
+      <c r="A310" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B310" s="4"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="4" t="s">
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E310" s="4"/>
-      <c r="F310" s="4"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="5"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="4" t="s">
+      <c r="A311" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B311" s="4"/>
-      <c r="C311" s="4"/>
-      <c r="D311" s="4" t="s">
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E311" s="4"/>
-      <c r="F311" s="4"/>
+      <c r="E311" s="5"/>
+      <c r="F311" s="5"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="4" t="s">
+      <c r="A312" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B312" s="4"/>
-      <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="4"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
+      <c r="E312" s="5"/>
+      <c r="F312" s="5"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
@@ -5692,72 +5788,72 @@
       <c r="F318" s="1"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="5" t="s">
+      <c r="A319" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B319" s="5"/>
-      <c r="C319" s="5"/>
-      <c r="D319" s="5"/>
-      <c r="E319" s="5"/>
-      <c r="F319" s="5"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
-      <c r="D320" s="4" t="s">
+      <c r="A320" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E320" s="4"/>
-      <c r="F320" s="4"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="5"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="4" t="s">
+      <c r="A321" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4" t="s">
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E321" s="4"/>
-      <c r="F321" s="4"/>
+      <c r="E321" s="5"/>
+      <c r="F321" s="5"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="4" t="s">
+      <c r="A322" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
-      <c r="D322" s="4" t="s">
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E322" s="4"/>
-      <c r="F322" s="4"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="5"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="4" t="s">
+      <c r="A323" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
-      <c r="D323" s="4" t="s">
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E323" s="4"/>
-      <c r="F323" s="4"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="4" t="s">
+      <c r="A324" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B324" s="4"/>
-      <c r="C324" s="4"/>
-      <c r="D324" s="4"/>
-      <c r="E324" s="4"/>
-      <c r="F324" s="4"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
+      <c r="E324" s="5"/>
+      <c r="F324" s="5"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
@@ -5836,72 +5932,72 @@
       <c r="F329" s="1"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="5" t="s">
+      <c r="A330" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B330" s="5"/>
-      <c r="C330" s="5"/>
-      <c r="D330" s="5"/>
-      <c r="E330" s="5"/>
-      <c r="F330" s="5"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B331" s="4"/>
-      <c r="C331" s="4"/>
-      <c r="D331" s="4" t="s">
+      <c r="A331" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B331" s="5"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E331" s="4"/>
-      <c r="F331" s="4"/>
+      <c r="E331" s="5"/>
+      <c r="F331" s="5"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="4" t="s">
+      <c r="A332" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B332" s="4"/>
-      <c r="C332" s="4"/>
-      <c r="D332" s="4" t="s">
+      <c r="B332" s="5"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E332" s="4"/>
-      <c r="F332" s="4"/>
+      <c r="E332" s="5"/>
+      <c r="F332" s="5"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="4" t="s">
+      <c r="A333" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B333" s="4"/>
-      <c r="C333" s="4"/>
-      <c r="D333" s="4" t="s">
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E333" s="4"/>
-      <c r="F333" s="4"/>
+      <c r="E333" s="5"/>
+      <c r="F333" s="5"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="4" t="s">
+      <c r="A334" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B334" s="4"/>
-      <c r="C334" s="4"/>
-      <c r="D334" s="4" t="s">
+      <c r="B334" s="5"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E334" s="4"/>
-      <c r="F334" s="4"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="5"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="4" t="s">
+      <c r="A335" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B335" s="4"/>
-      <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
-      <c r="E335" s="4"/>
-      <c r="F335" s="4"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
+      <c r="E335" s="5"/>
+      <c r="F335" s="5"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
@@ -5980,72 +6076,72 @@
       <c r="F340" s="1"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="5" t="s">
+      <c r="A341" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B341" s="5"/>
-      <c r="C341" s="5"/>
-      <c r="D341" s="5"/>
-      <c r="E341" s="5"/>
-      <c r="F341" s="5"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4" t="s">
+      <c r="A342" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E342" s="4"/>
-      <c r="F342" s="4"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="4" t="s">
+      <c r="A343" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B343" s="4"/>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4" t="s">
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E343" s="4"/>
-      <c r="F343" s="4"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="4" t="s">
+      <c r="A344" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B344" s="4"/>
-      <c r="C344" s="4"/>
-      <c r="D344" s="4" t="s">
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E344" s="4"/>
-      <c r="F344" s="4"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
+      <c r="A345" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B345" s="4"/>
-      <c r="C345" s="4"/>
-      <c r="D345" s="4" t="s">
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E345" s="4"/>
-      <c r="F345" s="4"/>
+      <c r="E345" s="5"/>
+      <c r="F345" s="5"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
+      <c r="A346" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B346" s="4"/>
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
-      <c r="E346" s="4"/>
-      <c r="F346" s="4"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="5"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
@@ -6136,72 +6232,72 @@
       <c r="F352" s="1"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="5" t="s">
+      <c r="A353" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B353" s="5"/>
-      <c r="C353" s="5"/>
-      <c r="D353" s="5"/>
-      <c r="E353" s="5"/>
-      <c r="F353" s="5"/>
+      <c r="B353" s="4"/>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4"/>
+      <c r="F353" s="4"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B354" s="4"/>
-      <c r="C354" s="4"/>
-      <c r="D354" s="4" t="s">
+      <c r="A354" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E354" s="4"/>
-      <c r="F354" s="4"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="4" t="s">
+      <c r="A355" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B355" s="4"/>
-      <c r="C355" s="4"/>
-      <c r="D355" s="4" t="s">
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E355" s="4"/>
-      <c r="F355" s="4"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="4" t="s">
+      <c r="A356" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B356" s="4"/>
-      <c r="C356" s="4"/>
-      <c r="D356" s="4" t="s">
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E356" s="4"/>
-      <c r="F356" s="4"/>
+      <c r="E356" s="5"/>
+      <c r="F356" s="5"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="4" t="s">
+      <c r="A357" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B357" s="4"/>
-      <c r="C357" s="4"/>
-      <c r="D357" s="4" t="s">
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E357" s="4"/>
-      <c r="F357" s="4"/>
+      <c r="E357" s="5"/>
+      <c r="F357" s="5"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="4" t="s">
+      <c r="A358" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B358" s="4"/>
-      <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
-      <c r="E358" s="4"/>
-      <c r="F358" s="4"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="5"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
@@ -6286,72 +6382,72 @@
       <c r="F363" s="1"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B364" s="5"/>
-      <c r="C364" s="5"/>
-      <c r="D364" s="5"/>
-      <c r="E364" s="5"/>
-      <c r="F364" s="5"/>
+      <c r="B364" s="4"/>
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+      <c r="E364" s="4"/>
+      <c r="F364" s="4"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B365" s="4"/>
-      <c r="C365" s="4"/>
-      <c r="D365" s="4" t="s">
+      <c r="A365" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B365" s="5"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E365" s="4"/>
-      <c r="F365" s="4"/>
+      <c r="E365" s="5"/>
+      <c r="F365" s="5"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="4" t="s">
+      <c r="A366" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B366" s="4"/>
-      <c r="C366" s="4"/>
-      <c r="D366" s="4" t="s">
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E366" s="4"/>
-      <c r="F366" s="4"/>
+      <c r="E366" s="5"/>
+      <c r="F366" s="5"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="4" t="s">
+      <c r="A367" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B367" s="4"/>
-      <c r="C367" s="4"/>
-      <c r="D367" s="4" t="s">
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E367" s="4"/>
-      <c r="F367" s="4"/>
+      <c r="E367" s="5"/>
+      <c r="F367" s="5"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="4" t="s">
+      <c r="A368" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B368" s="4"/>
-      <c r="C368" s="4"/>
-      <c r="D368" s="4" t="s">
+      <c r="B368" s="5"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E368" s="4"/>
-      <c r="F368" s="4"/>
+      <c r="E368" s="5"/>
+      <c r="F368" s="5"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="4" t="s">
+      <c r="A369" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B369" s="4"/>
-      <c r="C369" s="4"/>
-      <c r="D369" s="4"/>
-      <c r="E369" s="4"/>
-      <c r="F369" s="4"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
+      <c r="E369" s="5"/>
+      <c r="F369" s="5"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
@@ -6436,72 +6532,72 @@
       <c r="F374" s="1"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="5" t="s">
+      <c r="A375" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B375" s="5"/>
-      <c r="C375" s="5"/>
-      <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
-      <c r="F375" s="5"/>
+      <c r="B375" s="4"/>
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+      <c r="E375" s="4"/>
+      <c r="F375" s="4"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B376" s="4"/>
-      <c r="C376" s="4"/>
-      <c r="D376" s="4" t="s">
+      <c r="A376" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B376" s="5"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E376" s="4"/>
-      <c r="F376" s="4"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="5"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="4" t="s">
+      <c r="A377" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B377" s="4"/>
-      <c r="C377" s="4"/>
-      <c r="D377" s="4" t="s">
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E377" s="4"/>
-      <c r="F377" s="4"/>
+      <c r="E377" s="5"/>
+      <c r="F377" s="5"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="4" t="s">
+      <c r="A378" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B378" s="4"/>
-      <c r="C378" s="4"/>
-      <c r="D378" s="4" t="s">
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E378" s="4"/>
-      <c r="F378" s="4"/>
+      <c r="E378" s="5"/>
+      <c r="F378" s="5"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="4" t="s">
+      <c r="A379" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B379" s="4"/>
-      <c r="C379" s="4"/>
-      <c r="D379" s="4" t="s">
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E379" s="4"/>
-      <c r="F379" s="4"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="4" t="s">
+      <c r="A380" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B380" s="4"/>
-      <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
-      <c r="E380" s="4"/>
-      <c r="F380" s="4"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
+      <c r="E380" s="5"/>
+      <c r="F380" s="5"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
@@ -6594,72 +6690,72 @@
       <c r="F386" s="1"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="5" t="s">
+      <c r="A387" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B387" s="5"/>
-      <c r="C387" s="5"/>
-      <c r="D387" s="5"/>
-      <c r="E387" s="5"/>
-      <c r="F387" s="5"/>
+      <c r="B387" s="4"/>
+      <c r="C387" s="4"/>
+      <c r="D387" s="4"/>
+      <c r="E387" s="4"/>
+      <c r="F387" s="4"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B388" s="4"/>
-      <c r="C388" s="4"/>
-      <c r="D388" s="4" t="s">
+      <c r="A388" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B388" s="5"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E388" s="4"/>
-      <c r="F388" s="4"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="5"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="4" t="s">
+      <c r="A389" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B389" s="4"/>
-      <c r="C389" s="4"/>
-      <c r="D389" s="4" t="s">
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E389" s="4"/>
-      <c r="F389" s="4"/>
+      <c r="E389" s="5"/>
+      <c r="F389" s="5"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="4" t="s">
+      <c r="A390" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B390" s="4"/>
-      <c r="C390" s="4"/>
-      <c r="D390" s="4" t="s">
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E390" s="4"/>
-      <c r="F390" s="4"/>
+      <c r="E390" s="5"/>
+      <c r="F390" s="5"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="4" t="s">
+      <c r="A391" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B391" s="4"/>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4" t="s">
+      <c r="B391" s="5"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E391" s="4"/>
-      <c r="F391" s="4"/>
+      <c r="E391" s="5"/>
+      <c r="F391" s="5"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="4" t="s">
+      <c r="A392" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
-      <c r="E392" s="4"/>
-      <c r="F392" s="4"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="5"/>
+      <c r="D392" s="5"/>
+      <c r="E392" s="5"/>
+      <c r="F392" s="5"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
@@ -6744,72 +6840,72 @@
       <c r="F397" s="1"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="5" t="s">
+      <c r="A398" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B398" s="5"/>
-      <c r="C398" s="5"/>
-      <c r="D398" s="5"/>
-      <c r="E398" s="5"/>
-      <c r="F398" s="5"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="4"/>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4"/>
+      <c r="F398" s="4"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="4" t="s">
+      <c r="A399" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B399" s="4"/>
-      <c r="C399" s="4"/>
-      <c r="D399" s="4" t="s">
+      <c r="B399" s="5"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E399" s="4"/>
-      <c r="F399" s="4"/>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="4" t="s">
+      <c r="A400" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B400" s="4"/>
-      <c r="C400" s="4"/>
-      <c r="D400" s="4" t="s">
+      <c r="B400" s="5"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E400" s="4"/>
-      <c r="F400" s="4"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="4" t="s">
+      <c r="A401" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B401" s="4"/>
-      <c r="C401" s="4"/>
-      <c r="D401" s="4" t="s">
+      <c r="B401" s="5"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E401" s="4"/>
-      <c r="F401" s="4"/>
+      <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="4" t="s">
+      <c r="A402" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B402" s="4"/>
-      <c r="C402" s="4"/>
-      <c r="D402" s="4" t="s">
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E402" s="4"/>
-      <c r="F402" s="4"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="4" t="s">
+      <c r="A403" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B403" s="4"/>
-      <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
-      <c r="E403" s="4"/>
-      <c r="F403" s="4"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
@@ -6890,72 +6986,72 @@
       <c r="F408" s="1"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="5" t="s">
+      <c r="A409" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B409" s="5"/>
-      <c r="C409" s="5"/>
-      <c r="D409" s="5"/>
-      <c r="E409" s="5"/>
-      <c r="F409" s="5"/>
+      <c r="B409" s="4"/>
+      <c r="C409" s="4"/>
+      <c r="D409" s="4"/>
+      <c r="E409" s="4"/>
+      <c r="F409" s="4"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B410" s="4"/>
-      <c r="C410" s="4"/>
-      <c r="D410" s="4" t="s">
+      <c r="A410" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E410" s="4"/>
-      <c r="F410" s="4"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="4" t="s">
+      <c r="A411" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B411" s="4"/>
-      <c r="C411" s="4"/>
-      <c r="D411" s="4" t="s">
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E411" s="4"/>
-      <c r="F411" s="4"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="4" t="s">
+      <c r="A412" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B412" s="4"/>
-      <c r="C412" s="4"/>
-      <c r="D412" s="4" t="s">
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E412" s="4"/>
-      <c r="F412" s="4"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="4" t="s">
+      <c r="A413" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B413" s="4"/>
-      <c r="C413" s="4"/>
-      <c r="D413" s="4" t="s">
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E413" s="4"/>
-      <c r="F413" s="4"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="4" t="s">
+      <c r="A414" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B414" s="4"/>
-      <c r="C414" s="4"/>
-      <c r="D414" s="4"/>
-      <c r="E414" s="4"/>
-      <c r="F414" s="4"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
@@ -7032,72 +7128,72 @@
       <c r="F419" s="1"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="5" t="s">
+      <c r="A420" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B420" s="5"/>
-      <c r="C420" s="5"/>
-      <c r="D420" s="5"/>
-      <c r="E420" s="5"/>
-      <c r="F420" s="5"/>
+      <c r="B420" s="4"/>
+      <c r="C420" s="4"/>
+      <c r="D420" s="4"/>
+      <c r="E420" s="4"/>
+      <c r="F420" s="4"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B421" s="4"/>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4" t="s">
+      <c r="A421" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B421" s="5"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E421" s="4"/>
-      <c r="F421" s="4"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="4" t="s">
+      <c r="A422" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B422" s="4"/>
-      <c r="C422" s="4"/>
-      <c r="D422" s="4" t="s">
+      <c r="B422" s="5"/>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E422" s="4"/>
-      <c r="F422" s="4"/>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="4" t="s">
+      <c r="A423" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B423" s="4"/>
-      <c r="C423" s="4"/>
-      <c r="D423" s="4" t="s">
+      <c r="B423" s="5"/>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E423" s="4"/>
-      <c r="F423" s="4"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="4" t="s">
+      <c r="A424" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B424" s="4"/>
-      <c r="C424" s="4"/>
-      <c r="D424" s="4" t="s">
+      <c r="B424" s="5"/>
+      <c r="C424" s="5"/>
+      <c r="D424" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E424" s="4"/>
-      <c r="F424" s="4"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="4" t="s">
+      <c r="A425" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B425" s="4"/>
-      <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
-      <c r="E425" s="4"/>
-      <c r="F425" s="4"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
@@ -7152,72 +7248,72 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="5" t="s">
+      <c r="A429" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B429" s="5"/>
-      <c r="C429" s="5"/>
-      <c r="D429" s="5"/>
-      <c r="E429" s="5"/>
-      <c r="F429" s="5"/>
+      <c r="B429" s="4"/>
+      <c r="C429" s="4"/>
+      <c r="D429" s="4"/>
+      <c r="E429" s="4"/>
+      <c r="F429" s="4"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B430" s="4"/>
-      <c r="C430" s="4"/>
-      <c r="D430" s="4" t="s">
+      <c r="A430" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B430" s="5"/>
+      <c r="C430" s="5"/>
+      <c r="D430" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E430" s="4"/>
-      <c r="F430" s="4"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="4" t="s">
+      <c r="A431" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B431" s="4"/>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4" t="s">
+      <c r="B431" s="5"/>
+      <c r="C431" s="5"/>
+      <c r="D431" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E431" s="4"/>
-      <c r="F431" s="4"/>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="4" t="s">
+      <c r="A432" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B432" s="4"/>
-      <c r="C432" s="4"/>
-      <c r="D432" s="4" t="s">
+      <c r="B432" s="5"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E432" s="4"/>
-      <c r="F432" s="4"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="4" t="s">
+      <c r="A433" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B433" s="4"/>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4" t="s">
+      <c r="B433" s="5"/>
+      <c r="C433" s="5"/>
+      <c r="D433" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E433" s="4"/>
-      <c r="F433" s="4"/>
+      <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="4" t="s">
+      <c r="A434" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B434" s="4"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
-      <c r="E434" s="4"/>
-      <c r="F434" s="4"/>
+      <c r="B434" s="5"/>
+      <c r="C434" s="5"/>
+      <c r="D434" s="5"/>
+      <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
@@ -7276,428 +7372,817 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="1"/>
-      <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
-      <c r="D438" s="1"/>
-      <c r="E438" s="1"/>
-      <c r="F438" s="1"/>
+      <c r="A438" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B438" s="4"/>
+      <c r="C438" s="4"/>
+      <c r="D438" s="4"/>
+      <c r="E438" s="4"/>
+      <c r="F438" s="4"/>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="1"/>
-      <c r="B439" s="1"/>
-      <c r="C439" s="1"/>
-      <c r="D439" s="1"/>
-      <c r="E439" s="1"/>
-      <c r="F439" s="1"/>
+      <c r="A439" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B439" s="5"/>
+      <c r="C439" s="5"/>
+      <c r="D439" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E439" s="5"/>
+      <c r="F439" s="5"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B440" s="5"/>
+      <c r="C440" s="5"/>
+      <c r="D440" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E440" s="5"/>
+      <c r="F440" s="5"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B441" s="5"/>
+      <c r="C441" s="5"/>
+      <c r="D441" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441" s="5"/>
+      <c r="F441" s="5"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B442" s="5"/>
+      <c r="C442" s="5"/>
+      <c r="D442" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E442" s="5"/>
+      <c r="F442" s="5"/>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B443" s="5"/>
+      <c r="C443" s="5"/>
+      <c r="D443" s="5"/>
+      <c r="E443" s="5"/>
+      <c r="F443" s="5"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>1</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>2</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B447" s="4"/>
+      <c r="C447" s="4"/>
+      <c r="D447" s="4"/>
+      <c r="E447" s="4"/>
+      <c r="F447" s="4"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B448" s="5"/>
+      <c r="C448" s="5"/>
+      <c r="D448" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B449" s="5"/>
+      <c r="C449" s="5"/>
+      <c r="D449" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B450" s="5"/>
+      <c r="C450" s="5"/>
+      <c r="D450" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B451" s="5"/>
+      <c r="C451" s="5"/>
+      <c r="D451" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B452" s="5"/>
+      <c r="C452" s="5"/>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>1</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>2</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C455" s="1"/>
+      <c r="D455" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B456" s="4"/>
+      <c r="C456" s="4"/>
+      <c r="D456" s="4"/>
+      <c r="E456" s="4"/>
+      <c r="F456" s="4"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B457" s="5"/>
+      <c r="C457" s="5"/>
+      <c r="D457" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E457" s="5"/>
+      <c r="F457" s="5"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B458" s="5"/>
+      <c r="C458" s="5"/>
+      <c r="D458" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E458" s="5"/>
+      <c r="F458" s="5"/>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B459" s="5"/>
+      <c r="C459" s="5"/>
+      <c r="D459" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B460" s="5"/>
+      <c r="C460" s="5"/>
+      <c r="D460" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B461" s="5"/>
+      <c r="C461" s="5"/>
+      <c r="D461" s="5"/>
+      <c r="E461" s="5"/>
+      <c r="F461" s="5"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>1</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>2</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C464" s="1"/>
+      <c r="D464" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B465" s="4"/>
+      <c r="C465" s="4"/>
+      <c r="D465" s="4"/>
+      <c r="E465" s="4"/>
+      <c r="F465" s="4"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B466" s="5"/>
+      <c r="C466" s="5"/>
+      <c r="D466" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B467" s="5"/>
+      <c r="C467" s="5"/>
+      <c r="D467" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B468" s="5"/>
+      <c r="C468" s="5"/>
+      <c r="D468" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B469" s="5"/>
+      <c r="C469" s="5"/>
+      <c r="D469" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E469" s="5"/>
+      <c r="F469" s="5"/>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B470" s="5"/>
+      <c r="C470" s="5"/>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>1</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>2</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C473" s="1"/>
+      <c r="D473" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B474" s="4"/>
+      <c r="C474" s="4"/>
+      <c r="D474" s="4"/>
+      <c r="E474" s="4"/>
+      <c r="F474" s="4"/>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B475" s="5"/>
+      <c r="C475" s="5"/>
+      <c r="D475" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B476" s="5"/>
+      <c r="C476" s="5"/>
+      <c r="D476" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E476" s="5"/>
+      <c r="F476" s="5"/>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B477" s="5"/>
+      <c r="C477" s="5"/>
+      <c r="D477" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E477" s="5"/>
+      <c r="F477" s="5"/>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B478" s="5"/>
+      <c r="C478" s="5"/>
+      <c r="D478" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E478" s="5"/>
+      <c r="F478" s="5"/>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B479" s="5"/>
+      <c r="C479" s="5"/>
+      <c r="D479" s="5"/>
+      <c r="E479" s="5"/>
+      <c r="F479" s="5"/>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>1</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C481" s="1"/>
+      <c r="D481" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+      <c r="D482" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B483" s="4"/>
+      <c r="C483" s="4"/>
+      <c r="D483" s="4"/>
+      <c r="E483" s="4"/>
+      <c r="F483" s="4"/>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B484" s="5"/>
+      <c r="C484" s="5"/>
+      <c r="D484" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E484" s="5"/>
+      <c r="F484" s="5"/>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B485" s="5"/>
+      <c r="C485" s="5"/>
+      <c r="D485" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E485" s="5"/>
+      <c r="F485" s="5"/>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B486" s="5"/>
+      <c r="C486" s="5"/>
+      <c r="D486" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E486" s="5"/>
+      <c r="F486" s="5"/>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B487" s="5"/>
+      <c r="C487" s="5"/>
+      <c r="D487" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E487" s="5"/>
+      <c r="F487" s="5"/>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B488" s="5"/>
+      <c r="C488" s="5"/>
+      <c r="D488" s="5"/>
+      <c r="E488" s="5"/>
+      <c r="F488" s="5"/>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>1</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C490" s="1"/>
+      <c r="D490" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="1"/>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
+      <c r="D491" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="429">
-    <mergeCell ref="A429:F429"/>
-    <mergeCell ref="D434:F434"/>
-    <mergeCell ref="A434:C434"/>
-    <mergeCell ref="D433:F433"/>
-    <mergeCell ref="A433:C433"/>
-    <mergeCell ref="D432:F432"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="D431:F431"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="D430:F430"/>
-    <mergeCell ref="A430:C430"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="D422:F422"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="D423:F423"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="D424:F424"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="D425:F425"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="D414:F414"/>
-    <mergeCell ref="A420:F420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="D421:F421"/>
-    <mergeCell ref="A409:F409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="D410:F410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="D411:F411"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="D412:F412"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="D413:F413"/>
-    <mergeCell ref="D390:F390"/>
-    <mergeCell ref="D389:F389"/>
-    <mergeCell ref="D388:F388"/>
-    <mergeCell ref="D380:F380"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A387:F387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="A389:C389"/>
-    <mergeCell ref="D392:F392"/>
-    <mergeCell ref="D391:F391"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="D367:F367"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="D368:F368"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="D369:F369"/>
-    <mergeCell ref="D379:F379"/>
-    <mergeCell ref="D378:F378"/>
-    <mergeCell ref="D377:F377"/>
-    <mergeCell ref="D376:F376"/>
-    <mergeCell ref="A375:F375"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="D366:F366"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="A353:F353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="D356:F356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A341:F341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="D196:F196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="D198:F198"/>
-    <mergeCell ref="A194:F194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="D199:F199"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="A228:F228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="D241:F241"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="D242:F242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="A239:F239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="D240:F240"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="D244:F244"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="D253:F253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="D254:F254"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="D255:F255"/>
-    <mergeCell ref="A251:F251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="D252:F252"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="D256:F256"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="D264:F264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="D265:F265"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="D266:F266"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="D263:F263"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="D267:F267"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="D275:F275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="D276:F276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="D277:F277"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="D274:F274"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="D287:F287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="D288:F288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="D289:F289"/>
-    <mergeCell ref="A285:F285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="D286:F286"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="D290:F290"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="D298:F298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="D299:F299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="D300:F300"/>
-    <mergeCell ref="A296:F296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="D297:F297"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="D301:F301"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="D309:F309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="D310:F310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="D308:F308"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="D312:F312"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="A319:F319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="A330:F330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="D331:F331"/>
+  <mergeCells count="495">
+    <mergeCell ref="A488:C488"/>
+    <mergeCell ref="D488:F488"/>
+    <mergeCell ref="A483:F483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="D484:F484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="D485:F485"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="D486:F486"/>
+    <mergeCell ref="A487:C487"/>
+    <mergeCell ref="D487:F487"/>
+    <mergeCell ref="A478:C478"/>
+    <mergeCell ref="D478:F478"/>
+    <mergeCell ref="A479:C479"/>
+    <mergeCell ref="D479:F479"/>
+    <mergeCell ref="A447:F447"/>
+    <mergeCell ref="A448:C448"/>
+    <mergeCell ref="D448:F448"/>
+    <mergeCell ref="A449:C449"/>
+    <mergeCell ref="D449:F449"/>
+    <mergeCell ref="A450:C450"/>
+    <mergeCell ref="D450:F450"/>
+    <mergeCell ref="A451:C451"/>
+    <mergeCell ref="D451:F451"/>
+    <mergeCell ref="A452:C452"/>
+    <mergeCell ref="D452:F452"/>
+    <mergeCell ref="A456:F456"/>
+    <mergeCell ref="A457:C457"/>
+    <mergeCell ref="D457:F457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="D458:F458"/>
+    <mergeCell ref="A459:C459"/>
+    <mergeCell ref="D459:F459"/>
+    <mergeCell ref="A460:C460"/>
+    <mergeCell ref="D460:F460"/>
+    <mergeCell ref="A443:C443"/>
+    <mergeCell ref="D443:F443"/>
+    <mergeCell ref="A474:F474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="D475:F475"/>
+    <mergeCell ref="A476:C476"/>
+    <mergeCell ref="D476:F476"/>
+    <mergeCell ref="A477:C477"/>
+    <mergeCell ref="D477:F477"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="D461:F461"/>
+    <mergeCell ref="A465:F465"/>
+    <mergeCell ref="A466:C466"/>
+    <mergeCell ref="D466:F466"/>
+    <mergeCell ref="A467:C467"/>
+    <mergeCell ref="D467:F467"/>
+    <mergeCell ref="A468:C468"/>
+    <mergeCell ref="D468:F468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="D469:F469"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="D470:F470"/>
+    <mergeCell ref="A438:F438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="D439:F439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="D440:F440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="D441:F441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="D442:F442"/>
     <mergeCell ref="A402:C402"/>
     <mergeCell ref="D402:F402"/>
     <mergeCell ref="A403:C403"/>
@@ -7722,6 +8207,411 @@
     <mergeCell ref="D365:F365"/>
     <mergeCell ref="A364:F364"/>
     <mergeCell ref="A365:C365"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="A330:F330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="D312:F312"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="A319:F319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="D301:F301"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="D309:F309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="D310:F310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="D308:F308"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="D290:F290"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="D298:F298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="D299:F299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="D300:F300"/>
+    <mergeCell ref="A296:F296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="D297:F297"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="D288:F288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="D289:F289"/>
+    <mergeCell ref="A285:F285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="D286:F286"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="D267:F267"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="D275:F275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="D276:F276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="D277:F277"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="D274:F274"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="D256:F256"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="D264:F264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="D265:F265"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="D266:F266"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="D263:F263"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="D244:F244"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="D254:F254"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="D255:F255"/>
+    <mergeCell ref="A251:F251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="D252:F252"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="D242:F242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="A239:F239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="D240:F240"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="A228:F228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="D196:F196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A341:F341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="D366:F366"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="A353:F353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="D355:F355"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="D356:F356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="D367:F367"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="D368:F368"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="D369:F369"/>
+    <mergeCell ref="D379:F379"/>
+    <mergeCell ref="D378:F378"/>
+    <mergeCell ref="D377:F377"/>
+    <mergeCell ref="D376:F376"/>
+    <mergeCell ref="A375:F375"/>
+    <mergeCell ref="D390:F390"/>
+    <mergeCell ref="D389:F389"/>
+    <mergeCell ref="D388:F388"/>
+    <mergeCell ref="D380:F380"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A387:F387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="A389:C389"/>
+    <mergeCell ref="D392:F392"/>
+    <mergeCell ref="D391:F391"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="D410:F410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="D411:F411"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="D412:F412"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="D413:F413"/>
+    <mergeCell ref="A422:C422"/>
+    <mergeCell ref="D422:F422"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="D423:F423"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="D424:F424"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="D425:F425"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="D414:F414"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="D421:F421"/>
+    <mergeCell ref="A429:F429"/>
+    <mergeCell ref="D434:F434"/>
+    <mergeCell ref="A434:C434"/>
+    <mergeCell ref="D433:F433"/>
+    <mergeCell ref="A433:C433"/>
+    <mergeCell ref="D432:F432"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="D431:F431"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="D430:F430"/>
+    <mergeCell ref="A430:C430"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/TestCases .xlsx
+++ b/TestCases .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="303">
   <si>
     <t>Project Name:OpenM4S</t>
   </si>
@@ -908,6 +908,21 @@
   </si>
   <si>
     <t>Test Description:Validate if Documents are attached directly from scanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment should </t>
+  </si>
+  <si>
+    <t>be successful</t>
+  </si>
+  <si>
+    <t>1.Attachment successful</t>
+  </si>
+  <si>
+    <t>2.Attachment Unsuccessful</t>
+  </si>
+  <si>
+    <t>Documents for scanning</t>
   </si>
 </sst>
 </file>
@@ -1000,15 +1015,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1317,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G487" sqref="G487"/>
+    <sheetView tabSelected="1" topLeftCell="A471" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C490" sqref="C490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,14 +1351,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1350,16 +1368,16 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1369,16 +1387,16 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1388,16 +1406,16 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1407,16 +1425,16 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1426,14 +1444,14 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1558,14 +1576,14 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1575,16 +1593,16 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1594,16 +1612,16 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1613,16 +1631,16 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1632,16 +1650,16 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1651,14 +1669,14 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1787,14 +1805,14 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1804,16 +1822,16 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1823,16 +1841,16 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1842,16 +1860,16 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1861,16 +1879,16 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1880,14 +1898,14 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2031,14 +2049,14 @@
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2048,62 +2066,62 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2198,72 +2216,72 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -2358,72 +2376,72 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -2526,72 +2544,72 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5" t="s">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2686,72 +2704,72 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5" t="s">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5" t="s">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -2828,72 +2846,72 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5" t="s">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5" t="s">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5" t="s">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5" t="s">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -2986,72 +3004,72 @@
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5" t="s">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5" t="s">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5" t="s">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5" t="s">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -3150,72 +3168,72 @@
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5" t="s">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5" t="s">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5" t="s">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5" t="s">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -3288,72 +3306,72 @@
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5" t="s">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5" t="s">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5" t="s">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5" t="s">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -3444,72 +3462,72 @@
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5" t="s">
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5" t="s">
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5" t="s">
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B141" s="5"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5" t="s">
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -3594,72 +3612,72 @@
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B149" s="5"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5" t="s">
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5" t="s">
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5" t="s">
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5" t="s">
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -3742,72 +3760,72 @@
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5" t="s">
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5" t="s">
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5" t="s">
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5" t="s">
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -3892,72 +3910,72 @@
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B172" s="5"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5" t="s">
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="5"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5" t="s">
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B174" s="5"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="5" t="s">
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B175" s="5"/>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5" t="s">
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B176" s="5"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
@@ -4042,72 +4060,72 @@
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
+      <c r="A183" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5" t="s">
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="5" t="s">
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B186" s="5"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="5" t="s">
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B187" s="5"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5" t="s">
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B188" s="5"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
@@ -4184,72 +4202,72 @@
       <c r="F193" s="1"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5" t="s">
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="5"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5" t="s">
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B197" s="5"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5" t="s">
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B198" s="5"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5" t="s">
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B199" s="5"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -4326,72 +4344,72 @@
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B206" s="5"/>
-      <c r="C206" s="5"/>
-      <c r="D206" s="5" t="s">
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5" t="s">
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E207" s="5"/>
-      <c r="F207" s="5"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B208" s="5"/>
-      <c r="C208" s="5"/>
-      <c r="D208" s="5" t="s">
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5" t="s">
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-      <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="5"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
@@ -4476,72 +4494,72 @@
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B218" s="5"/>
-      <c r="C218" s="5"/>
-      <c r="D218" s="5" t="s">
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B219" s="5"/>
-      <c r="C219" s="5"/>
-      <c r="D219" s="5" t="s">
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B220" s="5"/>
-      <c r="C220" s="5"/>
-      <c r="D220" s="5" t="s">
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E220" s="5"/>
-      <c r="F220" s="5"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5" t="s">
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E221" s="5"/>
-      <c r="F221" s="5"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
@@ -4618,72 +4636,72 @@
       <c r="F227" s="1"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
+      <c r="A228" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
-      <c r="E228" s="4"/>
-      <c r="F228" s="4"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5" t="s">
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5" t="s">
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5" t="s">
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5" t="s">
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
@@ -4760,72 +4778,72 @@
       <c r="F238" s="1"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5" t="s">
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5" t="s">
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E241" s="5"/>
-      <c r="F241" s="5"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="5" t="s">
+      <c r="A242" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5" t="s">
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E242" s="5"/>
-      <c r="F242" s="5"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5" t="s">
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E243" s="5"/>
-      <c r="F243" s="5"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="5" t="s">
+      <c r="A244" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
@@ -4910,72 +4928,72 @@
       <c r="F250" s="1"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
+      <c r="A251" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="4"/>
-      <c r="F251" s="4"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="5" t="s">
+      <c r="A252" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B252" s="5"/>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5" t="s">
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E252" s="5"/>
-      <c r="F252" s="5"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B253" s="5"/>
-      <c r="C253" s="5"/>
-      <c r="D253" s="5" t="s">
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E253" s="5"/>
-      <c r="F253" s="5"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B254" s="5"/>
-      <c r="C254" s="5"/>
-      <c r="D254" s="5" t="s">
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="5" t="s">
+      <c r="A255" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B255" s="5"/>
-      <c r="C255" s="5"/>
-      <c r="D255" s="5" t="s">
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E255" s="5"/>
-      <c r="F255" s="5"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B256" s="5"/>
-      <c r="C256" s="5"/>
-      <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
-      <c r="F256" s="5"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
@@ -5052,72 +5070,72 @@
       <c r="F261" s="1"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
+      <c r="A262" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
-      <c r="F262" s="4"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5" t="s">
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
+      <c r="E263" s="4"/>
+      <c r="F263" s="4"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B264" s="5"/>
-      <c r="C264" s="5"/>
-      <c r="D264" s="5" t="s">
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5"/>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B265" s="5"/>
-      <c r="C265" s="5"/>
-      <c r="D265" s="5" t="s">
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
+      <c r="E265" s="4"/>
+      <c r="F265" s="4"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B266" s="5"/>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5" t="s">
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E266" s="5"/>
-      <c r="F266" s="5"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B267" s="5"/>
-      <c r="C267" s="5"/>
-      <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
-      <c r="F267" s="5"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
@@ -5196,72 +5214,72 @@
       <c r="F272" s="1"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="4" t="s">
+      <c r="A273" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B274" s="5"/>
-      <c r="C274" s="5"/>
-      <c r="D274" s="5" t="s">
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E274" s="5"/>
-      <c r="F274" s="5"/>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="5"/>
-      <c r="C275" s="5"/>
-      <c r="D275" s="5" t="s">
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E275" s="5"/>
-      <c r="F275" s="5"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B276" s="5"/>
-      <c r="C276" s="5"/>
-      <c r="D276" s="5" t="s">
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E276" s="5"/>
-      <c r="F276" s="5"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B277" s="5"/>
-      <c r="C277" s="5"/>
-      <c r="D277" s="5" t="s">
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E277" s="5"/>
-      <c r="F277" s="5"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B278" s="5"/>
-      <c r="C278" s="5"/>
-      <c r="D278" s="5"/>
-      <c r="E278" s="5"/>
-      <c r="F278" s="5"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+      <c r="F278" s="4"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
@@ -5348,72 +5366,72 @@
       <c r="F284" s="1"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
+      <c r="A285" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="4"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+      <c r="E285" s="5"/>
+      <c r="F285" s="5"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B286" s="5"/>
-      <c r="C286" s="5"/>
-      <c r="D286" s="5" t="s">
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E286" s="5"/>
-      <c r="F286" s="5"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="4"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B287" s="5"/>
-      <c r="C287" s="5"/>
-      <c r="D287" s="5" t="s">
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E287" s="5"/>
-      <c r="F287" s="5"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="4"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B288" s="5"/>
-      <c r="C288" s="5"/>
-      <c r="D288" s="5" t="s">
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E288" s="5"/>
-      <c r="F288" s="5"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B289" s="5"/>
-      <c r="C289" s="5"/>
-      <c r="D289" s="5" t="s">
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E289" s="5"/>
-      <c r="F289" s="5"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B290" s="5"/>
-      <c r="C290" s="5"/>
-      <c r="D290" s="5"/>
-      <c r="E290" s="5"/>
-      <c r="F290" s="5"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4"/>
+      <c r="F290" s="4"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
@@ -5492,72 +5510,72 @@
       <c r="F295" s="1"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
+      <c r="A296" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B296" s="4"/>
-      <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
-      <c r="E296" s="4"/>
-      <c r="F296" s="4"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B297" s="5"/>
-      <c r="C297" s="5"/>
-      <c r="D297" s="5" t="s">
+      <c r="B297" s="4"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E297" s="5"/>
-      <c r="F297" s="5"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298" s="5" t="s">
+      <c r="A298" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B298" s="5"/>
-      <c r="C298" s="5"/>
-      <c r="D298" s="5" t="s">
+      <c r="B298" s="4"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E298" s="5"/>
-      <c r="F298" s="5"/>
+      <c r="E298" s="4"/>
+      <c r="F298" s="4"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B299" s="5"/>
-      <c r="C299" s="5"/>
-      <c r="D299" s="5" t="s">
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E299" s="5"/>
-      <c r="F299" s="5"/>
+      <c r="E299" s="4"/>
+      <c r="F299" s="4"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="5" t="s">
+      <c r="A300" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B300" s="5"/>
-      <c r="C300" s="5"/>
-      <c r="D300" s="5" t="s">
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E300" s="5"/>
-      <c r="F300" s="5"/>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B301" s="5"/>
-      <c r="C301" s="5"/>
-      <c r="D301" s="5"/>
-      <c r="E301" s="5"/>
-      <c r="F301" s="5"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4"/>
+      <c r="F301" s="4"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
@@ -5636,72 +5654,72 @@
       <c r="F306" s="1"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="4" t="s">
+      <c r="A307" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B307" s="4"/>
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
-      <c r="F307" s="4"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B308" s="5"/>
-      <c r="C308" s="5"/>
-      <c r="D308" s="5" t="s">
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E308" s="5"/>
-      <c r="F308" s="5"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="5" t="s">
+      <c r="A309" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B309" s="5"/>
-      <c r="C309" s="5"/>
-      <c r="D309" s="5" t="s">
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E309" s="5"/>
-      <c r="F309" s="5"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310" s="5" t="s">
+      <c r="A310" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B310" s="5"/>
-      <c r="C310" s="5"/>
-      <c r="D310" s="5" t="s">
+      <c r="B310" s="4"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E310" s="5"/>
-      <c r="F310" s="5"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311" s="5" t="s">
+      <c r="A311" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B311" s="5"/>
-      <c r="C311" s="5"/>
-      <c r="D311" s="5" t="s">
+      <c r="B311" s="4"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E311" s="5"/>
-      <c r="F311" s="5"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B312" s="5"/>
-      <c r="C312" s="5"/>
-      <c r="D312" s="5"/>
-      <c r="E312" s="5"/>
-      <c r="F312" s="5"/>
+      <c r="B312" s="4"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="4"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
@@ -5788,72 +5806,72 @@
       <c r="F318" s="1"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="4" t="s">
+      <c r="A319" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B319" s="4"/>
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="4"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="5"/>
+      <c r="F319" s="5"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="5" t="s">
+      <c r="A320" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B320" s="5"/>
-      <c r="C320" s="5"/>
-      <c r="D320" s="5" t="s">
+      <c r="B320" s="4"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E320" s="5"/>
-      <c r="F320" s="5"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B321" s="5"/>
-      <c r="C321" s="5"/>
-      <c r="D321" s="5" t="s">
+      <c r="B321" s="4"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E321" s="5"/>
-      <c r="F321" s="5"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="5" t="s">
+      <c r="A322" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B322" s="5"/>
-      <c r="C322" s="5"/>
-      <c r="D322" s="5" t="s">
+      <c r="B322" s="4"/>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E322" s="5"/>
-      <c r="F322" s="5"/>
+      <c r="E322" s="4"/>
+      <c r="F322" s="4"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323" s="5" t="s">
+      <c r="A323" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B323" s="5"/>
-      <c r="C323" s="5"/>
-      <c r="D323" s="5" t="s">
+      <c r="B323" s="4"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E323" s="5"/>
-      <c r="F323" s="5"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="5" t="s">
+      <c r="A324" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B324" s="5"/>
-      <c r="C324" s="5"/>
-      <c r="D324" s="5"/>
-      <c r="E324" s="5"/>
-      <c r="F324" s="5"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+      <c r="F324" s="4"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
@@ -5932,72 +5950,72 @@
       <c r="F329" s="1"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="4" t="s">
+      <c r="A330" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B330" s="4"/>
-      <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="4"/>
-      <c r="F330" s="4"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
+      <c r="E330" s="5"/>
+      <c r="F330" s="5"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="5" t="s">
+      <c r="A331" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B331" s="5"/>
-      <c r="C331" s="5"/>
-      <c r="D331" s="5" t="s">
+      <c r="B331" s="4"/>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E331" s="5"/>
-      <c r="F331" s="5"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="5" t="s">
+      <c r="A332" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B332" s="5"/>
-      <c r="C332" s="5"/>
-      <c r="D332" s="5" t="s">
+      <c r="B332" s="4"/>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E332" s="5"/>
-      <c r="F332" s="5"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="5" t="s">
+      <c r="A333" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B333" s="5"/>
-      <c r="C333" s="5"/>
-      <c r="D333" s="5" t="s">
+      <c r="B333" s="4"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E333" s="5"/>
-      <c r="F333" s="5"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B334" s="5"/>
-      <c r="C334" s="5"/>
-      <c r="D334" s="5" t="s">
+      <c r="B334" s="4"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E334" s="5"/>
-      <c r="F334" s="5"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335" s="5" t="s">
+      <c r="A335" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B335" s="5"/>
-      <c r="C335" s="5"/>
-      <c r="D335" s="5"/>
-      <c r="E335" s="5"/>
-      <c r="F335" s="5"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
@@ -6076,72 +6094,72 @@
       <c r="F340" s="1"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="4" t="s">
+      <c r="A341" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
-      <c r="F341" s="4"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="5" t="s">
+      <c r="A342" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B342" s="5"/>
-      <c r="C342" s="5"/>
-      <c r="D342" s="5" t="s">
+      <c r="B342" s="4"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E342" s="5"/>
-      <c r="F342" s="5"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="5" t="s">
+      <c r="A343" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B343" s="5"/>
-      <c r="C343" s="5"/>
-      <c r="D343" s="5" t="s">
+      <c r="B343" s="4"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E343" s="5"/>
-      <c r="F343" s="5"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="5" t="s">
+      <c r="A344" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B344" s="5"/>
-      <c r="C344" s="5"/>
-      <c r="D344" s="5" t="s">
+      <c r="B344" s="4"/>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E344" s="5"/>
-      <c r="F344" s="5"/>
+      <c r="E344" s="4"/>
+      <c r="F344" s="4"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="5" t="s">
+      <c r="A345" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B345" s="5"/>
-      <c r="C345" s="5"/>
-      <c r="D345" s="5" t="s">
+      <c r="B345" s="4"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E345" s="5"/>
-      <c r="F345" s="5"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="5" t="s">
+      <c r="A346" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B346" s="5"/>
-      <c r="C346" s="5"/>
-      <c r="D346" s="5"/>
-      <c r="E346" s="5"/>
-      <c r="F346" s="5"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4"/>
+      <c r="F346" s="4"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
@@ -6232,72 +6250,72 @@
       <c r="F352" s="1"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="4" t="s">
+      <c r="A353" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B353" s="4"/>
-      <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
-      <c r="E353" s="4"/>
-      <c r="F353" s="4"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
+      <c r="E353" s="5"/>
+      <c r="F353" s="5"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="5" t="s">
+      <c r="A354" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B354" s="5"/>
-      <c r="C354" s="5"/>
-      <c r="D354" s="5" t="s">
+      <c r="B354" s="4"/>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E354" s="5"/>
-      <c r="F354" s="5"/>
+      <c r="E354" s="4"/>
+      <c r="F354" s="4"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="5" t="s">
+      <c r="A355" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B355" s="5"/>
-      <c r="C355" s="5"/>
-      <c r="D355" s="5" t="s">
+      <c r="B355" s="4"/>
+      <c r="C355" s="4"/>
+      <c r="D355" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E355" s="5"/>
-      <c r="F355" s="5"/>
+      <c r="E355" s="4"/>
+      <c r="F355" s="4"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="5" t="s">
+      <c r="A356" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B356" s="5"/>
-      <c r="C356" s="5"/>
-      <c r="D356" s="5" t="s">
+      <c r="B356" s="4"/>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E356" s="5"/>
-      <c r="F356" s="5"/>
+      <c r="E356" s="4"/>
+      <c r="F356" s="4"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="5" t="s">
+      <c r="A357" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B357" s="5"/>
-      <c r="C357" s="5"/>
-      <c r="D357" s="5" t="s">
+      <c r="B357" s="4"/>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E357" s="5"/>
-      <c r="F357" s="5"/>
+      <c r="E357" s="4"/>
+      <c r="F357" s="4"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="5" t="s">
+      <c r="A358" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B358" s="5"/>
-      <c r="C358" s="5"/>
-      <c r="D358" s="5"/>
-      <c r="E358" s="5"/>
-      <c r="F358" s="5"/>
+      <c r="B358" s="4"/>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="4"/>
+      <c r="F358" s="4"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
@@ -6382,72 +6400,72 @@
       <c r="F363" s="1"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="4" t="s">
+      <c r="A364" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B364" s="4"/>
-      <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="4"/>
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="5"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="5" t="s">
+      <c r="A365" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B365" s="5"/>
-      <c r="C365" s="5"/>
-      <c r="D365" s="5" t="s">
+      <c r="B365" s="4"/>
+      <c r="C365" s="4"/>
+      <c r="D365" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E365" s="5"/>
-      <c r="F365" s="5"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="4"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="5" t="s">
+      <c r="A366" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B366" s="5"/>
-      <c r="C366" s="5"/>
-      <c r="D366" s="5" t="s">
+      <c r="B366" s="4"/>
+      <c r="C366" s="4"/>
+      <c r="D366" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E366" s="5"/>
-      <c r="F366" s="5"/>
+      <c r="E366" s="4"/>
+      <c r="F366" s="4"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="5" t="s">
+      <c r="A367" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B367" s="5"/>
-      <c r="C367" s="5"/>
-      <c r="D367" s="5" t="s">
+      <c r="B367" s="4"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E367" s="5"/>
-      <c r="F367" s="5"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="4"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="5" t="s">
+      <c r="A368" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B368" s="5"/>
-      <c r="C368" s="5"/>
-      <c r="D368" s="5" t="s">
+      <c r="B368" s="4"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E368" s="5"/>
-      <c r="F368" s="5"/>
+      <c r="E368" s="4"/>
+      <c r="F368" s="4"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="5" t="s">
+      <c r="A369" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B369" s="5"/>
-      <c r="C369" s="5"/>
-      <c r="D369" s="5"/>
-      <c r="E369" s="5"/>
-      <c r="F369" s="5"/>
+      <c r="B369" s="4"/>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4"/>
+      <c r="F369" s="4"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
@@ -6532,72 +6550,72 @@
       <c r="F374" s="1"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="4" t="s">
+      <c r="A375" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
-      <c r="E375" s="4"/>
-      <c r="F375" s="4"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
+      <c r="E375" s="5"/>
+      <c r="F375" s="5"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="5" t="s">
+      <c r="A376" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B376" s="5"/>
-      <c r="C376" s="5"/>
-      <c r="D376" s="5" t="s">
+      <c r="B376" s="4"/>
+      <c r="C376" s="4"/>
+      <c r="D376" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E376" s="5"/>
-      <c r="F376" s="5"/>
+      <c r="E376" s="4"/>
+      <c r="F376" s="4"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="5" t="s">
+      <c r="A377" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B377" s="5"/>
-      <c r="C377" s="5"/>
-      <c r="D377" s="5" t="s">
+      <c r="B377" s="4"/>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E377" s="5"/>
-      <c r="F377" s="5"/>
+      <c r="E377" s="4"/>
+      <c r="F377" s="4"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="5" t="s">
+      <c r="A378" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B378" s="5"/>
-      <c r="C378" s="5"/>
-      <c r="D378" s="5" t="s">
+      <c r="B378" s="4"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E378" s="5"/>
-      <c r="F378" s="5"/>
+      <c r="E378" s="4"/>
+      <c r="F378" s="4"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="5" t="s">
+      <c r="A379" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B379" s="5"/>
-      <c r="C379" s="5"/>
-      <c r="D379" s="5" t="s">
+      <c r="B379" s="4"/>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E379" s="5"/>
-      <c r="F379" s="5"/>
+      <c r="E379" s="4"/>
+      <c r="F379" s="4"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="5" t="s">
+      <c r="A380" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B380" s="5"/>
-      <c r="C380" s="5"/>
-      <c r="D380" s="5"/>
-      <c r="E380" s="5"/>
-      <c r="F380" s="5"/>
+      <c r="B380" s="4"/>
+      <c r="C380" s="4"/>
+      <c r="D380" s="4"/>
+      <c r="E380" s="4"/>
+      <c r="F380" s="4"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
@@ -6690,72 +6708,72 @@
       <c r="F386" s="1"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="4" t="s">
+      <c r="A387" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B387" s="4"/>
-      <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
-      <c r="E387" s="4"/>
-      <c r="F387" s="4"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
+      <c r="E387" s="5"/>
+      <c r="F387" s="5"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="5" t="s">
+      <c r="A388" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B388" s="5"/>
-      <c r="C388" s="5"/>
-      <c r="D388" s="5" t="s">
+      <c r="B388" s="4"/>
+      <c r="C388" s="4"/>
+      <c r="D388" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E388" s="5"/>
-      <c r="F388" s="5"/>
+      <c r="E388" s="4"/>
+      <c r="F388" s="4"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="5" t="s">
+      <c r="A389" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B389" s="5"/>
-      <c r="C389" s="5"/>
-      <c r="D389" s="5" t="s">
+      <c r="B389" s="4"/>
+      <c r="C389" s="4"/>
+      <c r="D389" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E389" s="5"/>
-      <c r="F389" s="5"/>
+      <c r="E389" s="4"/>
+      <c r="F389" s="4"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="5" t="s">
+      <c r="A390" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B390" s="5"/>
-      <c r="C390" s="5"/>
-      <c r="D390" s="5" t="s">
+      <c r="B390" s="4"/>
+      <c r="C390" s="4"/>
+      <c r="D390" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E390" s="5"/>
-      <c r="F390" s="5"/>
+      <c r="E390" s="4"/>
+      <c r="F390" s="4"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="5" t="s">
+      <c r="A391" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B391" s="5"/>
-      <c r="C391" s="5"/>
-      <c r="D391" s="5" t="s">
+      <c r="B391" s="4"/>
+      <c r="C391" s="4"/>
+      <c r="D391" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E391" s="5"/>
-      <c r="F391" s="5"/>
+      <c r="E391" s="4"/>
+      <c r="F391" s="4"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="5" t="s">
+      <c r="A392" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B392" s="5"/>
-      <c r="C392" s="5"/>
-      <c r="D392" s="5"/>
-      <c r="E392" s="5"/>
-      <c r="F392" s="5"/>
+      <c r="B392" s="4"/>
+      <c r="C392" s="4"/>
+      <c r="D392" s="4"/>
+      <c r="E392" s="4"/>
+      <c r="F392" s="4"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
@@ -6840,72 +6858,72 @@
       <c r="F397" s="1"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="4" t="s">
+      <c r="A398" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
-      <c r="E398" s="4"/>
-      <c r="F398" s="4"/>
+      <c r="B398" s="5"/>
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="5" t="s">
+      <c r="A399" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B399" s="5"/>
-      <c r="C399" s="5"/>
-      <c r="D399" s="5" t="s">
+      <c r="B399" s="4"/>
+      <c r="C399" s="4"/>
+      <c r="D399" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E399" s="5"/>
-      <c r="F399" s="5"/>
+      <c r="E399" s="4"/>
+      <c r="F399" s="4"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="5" t="s">
+      <c r="A400" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B400" s="5"/>
-      <c r="C400" s="5"/>
-      <c r="D400" s="5" t="s">
+      <c r="B400" s="4"/>
+      <c r="C400" s="4"/>
+      <c r="D400" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E400" s="5"/>
-      <c r="F400" s="5"/>
+      <c r="E400" s="4"/>
+      <c r="F400" s="4"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="5" t="s">
+      <c r="A401" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B401" s="5"/>
-      <c r="C401" s="5"/>
-      <c r="D401" s="5" t="s">
+      <c r="B401" s="4"/>
+      <c r="C401" s="4"/>
+      <c r="D401" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E401" s="5"/>
-      <c r="F401" s="5"/>
+      <c r="E401" s="4"/>
+      <c r="F401" s="4"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="5" t="s">
+      <c r="A402" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B402" s="5"/>
-      <c r="C402" s="5"/>
-      <c r="D402" s="5" t="s">
+      <c r="B402" s="4"/>
+      <c r="C402" s="4"/>
+      <c r="D402" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E402" s="5"/>
-      <c r="F402" s="5"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="4"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="5" t="s">
+      <c r="A403" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B403" s="5"/>
-      <c r="C403" s="5"/>
-      <c r="D403" s="5"/>
-      <c r="E403" s="5"/>
-      <c r="F403" s="5"/>
+      <c r="B403" s="4"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+      <c r="E403" s="4"/>
+      <c r="F403" s="4"/>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
@@ -6986,72 +7004,72 @@
       <c r="F408" s="1"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="4" t="s">
+      <c r="A409" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B409" s="4"/>
-      <c r="C409" s="4"/>
-      <c r="D409" s="4"/>
-      <c r="E409" s="4"/>
-      <c r="F409" s="4"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="5" t="s">
+      <c r="A410" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B410" s="5"/>
-      <c r="C410" s="5"/>
-      <c r="D410" s="5" t="s">
+      <c r="B410" s="4"/>
+      <c r="C410" s="4"/>
+      <c r="D410" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E410" s="5"/>
-      <c r="F410" s="5"/>
+      <c r="E410" s="4"/>
+      <c r="F410" s="4"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="5" t="s">
+      <c r="A411" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B411" s="5"/>
-      <c r="C411" s="5"/>
-      <c r="D411" s="5" t="s">
+      <c r="B411" s="4"/>
+      <c r="C411" s="4"/>
+      <c r="D411" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E411" s="5"/>
-      <c r="F411" s="5"/>
+      <c r="E411" s="4"/>
+      <c r="F411" s="4"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="5" t="s">
+      <c r="A412" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5" t="s">
+      <c r="B412" s="4"/>
+      <c r="C412" s="4"/>
+      <c r="D412" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
+      <c r="E412" s="4"/>
+      <c r="F412" s="4"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="5" t="s">
+      <c r="A413" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5" t="s">
+      <c r="B413" s="4"/>
+      <c r="C413" s="4"/>
+      <c r="D413" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E413" s="5"/>
-      <c r="F413" s="5"/>
+      <c r="E413" s="4"/>
+      <c r="F413" s="4"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="5" t="s">
+      <c r="A414" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B414" s="5"/>
-      <c r="C414" s="5"/>
-      <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
-      <c r="F414" s="5"/>
+      <c r="B414" s="4"/>
+      <c r="C414" s="4"/>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4"/>
+      <c r="F414" s="4"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
@@ -7128,72 +7146,72 @@
       <c r="F419" s="1"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="4" t="s">
+      <c r="A420" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B420" s="4"/>
-      <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
-      <c r="E420" s="4"/>
-      <c r="F420" s="4"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="5" t="s">
+      <c r="A421" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B421" s="5"/>
-      <c r="C421" s="5"/>
-      <c r="D421" s="5" t="s">
+      <c r="B421" s="4"/>
+      <c r="C421" s="4"/>
+      <c r="D421" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E421" s="5"/>
-      <c r="F421" s="5"/>
+      <c r="E421" s="4"/>
+      <c r="F421" s="4"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="5" t="s">
+      <c r="A422" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B422" s="5"/>
-      <c r="C422" s="5"/>
-      <c r="D422" s="5" t="s">
+      <c r="B422" s="4"/>
+      <c r="C422" s="4"/>
+      <c r="D422" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E422" s="5"/>
-      <c r="F422" s="5"/>
+      <c r="E422" s="4"/>
+      <c r="F422" s="4"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="5" t="s">
+      <c r="A423" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B423" s="5"/>
-      <c r="C423" s="5"/>
-      <c r="D423" s="5" t="s">
+      <c r="B423" s="4"/>
+      <c r="C423" s="4"/>
+      <c r="D423" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E423" s="5"/>
-      <c r="F423" s="5"/>
+      <c r="E423" s="4"/>
+      <c r="F423" s="4"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="5" t="s">
+      <c r="A424" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B424" s="5"/>
-      <c r="C424" s="5"/>
-      <c r="D424" s="5" t="s">
+      <c r="B424" s="4"/>
+      <c r="C424" s="4"/>
+      <c r="D424" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E424" s="5"/>
-      <c r="F424" s="5"/>
+      <c r="E424" s="4"/>
+      <c r="F424" s="4"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="5" t="s">
+      <c r="A425" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B425" s="5"/>
-      <c r="C425" s="5"/>
-      <c r="D425" s="5"/>
-      <c r="E425" s="5"/>
-      <c r="F425" s="5"/>
+      <c r="B425" s="4"/>
+      <c r="C425" s="4"/>
+      <c r="D425" s="4"/>
+      <c r="E425" s="4"/>
+      <c r="F425" s="4"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
@@ -7248,72 +7266,72 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="4" t="s">
+      <c r="A429" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B429" s="4"/>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
-      <c r="E429" s="4"/>
-      <c r="F429" s="4"/>
+      <c r="B429" s="5"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="5" t="s">
+      <c r="A430" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B430" s="5"/>
-      <c r="C430" s="5"/>
-      <c r="D430" s="5" t="s">
+      <c r="B430" s="4"/>
+      <c r="C430" s="4"/>
+      <c r="D430" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E430" s="5"/>
-      <c r="F430" s="5"/>
+      <c r="E430" s="4"/>
+      <c r="F430" s="4"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="5" t="s">
+      <c r="A431" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B431" s="5"/>
-      <c r="C431" s="5"/>
-      <c r="D431" s="5" t="s">
+      <c r="B431" s="4"/>
+      <c r="C431" s="4"/>
+      <c r="D431" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E431" s="5"/>
-      <c r="F431" s="5"/>
+      <c r="E431" s="4"/>
+      <c r="F431" s="4"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="5" t="s">
+      <c r="A432" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B432" s="5"/>
-      <c r="C432" s="5"/>
-      <c r="D432" s="5" t="s">
+      <c r="B432" s="4"/>
+      <c r="C432" s="4"/>
+      <c r="D432" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E432" s="5"/>
-      <c r="F432" s="5"/>
+      <c r="E432" s="4"/>
+      <c r="F432" s="4"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="5" t="s">
+      <c r="A433" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B433" s="5"/>
-      <c r="C433" s="5"/>
-      <c r="D433" s="5" t="s">
+      <c r="B433" s="4"/>
+      <c r="C433" s="4"/>
+      <c r="D433" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E433" s="5"/>
-      <c r="F433" s="5"/>
+      <c r="E433" s="4"/>
+      <c r="F433" s="4"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="5" t="s">
+      <c r="A434" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B434" s="5"/>
-      <c r="C434" s="5"/>
-      <c r="D434" s="5"/>
-      <c r="E434" s="5"/>
-      <c r="F434" s="5"/>
+      <c r="B434" s="4"/>
+      <c r="C434" s="4"/>
+      <c r="D434" s="4"/>
+      <c r="E434" s="4"/>
+      <c r="F434" s="4"/>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
@@ -7372,72 +7390,72 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="4" t="s">
+      <c r="A438" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B438" s="4"/>
-      <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
-      <c r="E438" s="4"/>
-      <c r="F438" s="4"/>
+      <c r="B438" s="5"/>
+      <c r="C438" s="5"/>
+      <c r="D438" s="5"/>
+      <c r="E438" s="5"/>
+      <c r="F438" s="5"/>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="5" t="s">
+      <c r="A439" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B439" s="5"/>
-      <c r="C439" s="5"/>
-      <c r="D439" s="5" t="s">
+      <c r="B439" s="4"/>
+      <c r="C439" s="4"/>
+      <c r="D439" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E439" s="5"/>
-      <c r="F439" s="5"/>
+      <c r="E439" s="4"/>
+      <c r="F439" s="4"/>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="5" t="s">
+      <c r="A440" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B440" s="5"/>
-      <c r="C440" s="5"/>
-      <c r="D440" s="5" t="s">
+      <c r="B440" s="4"/>
+      <c r="C440" s="4"/>
+      <c r="D440" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E440" s="5"/>
-      <c r="F440" s="5"/>
+      <c r="E440" s="4"/>
+      <c r="F440" s="4"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="5" t="s">
+      <c r="A441" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B441" s="5"/>
-      <c r="C441" s="5"/>
-      <c r="D441" s="5" t="s">
+      <c r="B441" s="4"/>
+      <c r="C441" s="4"/>
+      <c r="D441" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E441" s="5"/>
-      <c r="F441" s="5"/>
+      <c r="E441" s="4"/>
+      <c r="F441" s="4"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="5" t="s">
+      <c r="A442" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B442" s="5"/>
-      <c r="C442" s="5"/>
-      <c r="D442" s="5" t="s">
+      <c r="B442" s="4"/>
+      <c r="C442" s="4"/>
+      <c r="D442" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E442" s="5"/>
-      <c r="F442" s="5"/>
+      <c r="E442" s="4"/>
+      <c r="F442" s="4"/>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="5" t="s">
+      <c r="A443" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B443" s="5"/>
-      <c r="C443" s="5"/>
-      <c r="D443" s="5"/>
-      <c r="E443" s="5"/>
-      <c r="F443" s="5"/>
+      <c r="B443" s="4"/>
+      <c r="C443" s="4"/>
+      <c r="D443" s="4"/>
+      <c r="E443" s="4"/>
+      <c r="F443" s="4"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
@@ -7498,72 +7516,72 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="4" t="s">
+      <c r="A447" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B447" s="4"/>
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
-      <c r="E447" s="4"/>
-      <c r="F447" s="4"/>
+      <c r="B447" s="5"/>
+      <c r="C447" s="5"/>
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="5" t="s">
+      <c r="A448" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B448" s="5"/>
-      <c r="C448" s="5"/>
-      <c r="D448" s="5" t="s">
+      <c r="B448" s="4"/>
+      <c r="C448" s="4"/>
+      <c r="D448" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E448" s="5"/>
-      <c r="F448" s="5"/>
+      <c r="E448" s="4"/>
+      <c r="F448" s="4"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="5" t="s">
+      <c r="A449" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B449" s="5"/>
-      <c r="C449" s="5"/>
-      <c r="D449" s="5" t="s">
+      <c r="B449" s="4"/>
+      <c r="C449" s="4"/>
+      <c r="D449" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E449" s="5"/>
-      <c r="F449" s="5"/>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="5" t="s">
+      <c r="A450" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B450" s="5"/>
-      <c r="C450" s="5"/>
-      <c r="D450" s="5" t="s">
+      <c r="B450" s="4"/>
+      <c r="C450" s="4"/>
+      <c r="D450" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E450" s="5"/>
-      <c r="F450" s="5"/>
+      <c r="E450" s="4"/>
+      <c r="F450" s="4"/>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="5" t="s">
+      <c r="A451" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B451" s="5"/>
-      <c r="C451" s="5"/>
-      <c r="D451" s="5" t="s">
+      <c r="B451" s="4"/>
+      <c r="C451" s="4"/>
+      <c r="D451" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E451" s="5"/>
-      <c r="F451" s="5"/>
+      <c r="E451" s="4"/>
+      <c r="F451" s="4"/>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="5" t="s">
+      <c r="A452" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B452" s="5"/>
-      <c r="C452" s="5"/>
-      <c r="D452" s="5"/>
-      <c r="E452" s="5"/>
-      <c r="F452" s="5"/>
+      <c r="B452" s="4"/>
+      <c r="C452" s="4"/>
+      <c r="D452" s="4"/>
+      <c r="E452" s="4"/>
+      <c r="F452" s="4"/>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
@@ -7624,72 +7642,72 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="4" t="s">
+      <c r="A456" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B456" s="4"/>
-      <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
-      <c r="E456" s="4"/>
-      <c r="F456" s="4"/>
+      <c r="B456" s="5"/>
+      <c r="C456" s="5"/>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="5" t="s">
+      <c r="A457" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B457" s="5"/>
-      <c r="C457" s="5"/>
-      <c r="D457" s="5" t="s">
+      <c r="B457" s="4"/>
+      <c r="C457" s="4"/>
+      <c r="D457" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E457" s="5"/>
-      <c r="F457" s="5"/>
+      <c r="E457" s="4"/>
+      <c r="F457" s="4"/>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="5" t="s">
+      <c r="A458" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B458" s="5"/>
-      <c r="C458" s="5"/>
-      <c r="D458" s="5" t="s">
+      <c r="B458" s="4"/>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E458" s="5"/>
-      <c r="F458" s="5"/>
+      <c r="E458" s="4"/>
+      <c r="F458" s="4"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="5" t="s">
+      <c r="A459" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B459" s="5"/>
-      <c r="C459" s="5"/>
-      <c r="D459" s="5" t="s">
+      <c r="B459" s="4"/>
+      <c r="C459" s="4"/>
+      <c r="D459" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E459" s="5"/>
-      <c r="F459" s="5"/>
+      <c r="E459" s="4"/>
+      <c r="F459" s="4"/>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="5" t="s">
+      <c r="A460" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B460" s="5"/>
-      <c r="C460" s="5"/>
-      <c r="D460" s="5" t="s">
+      <c r="B460" s="4"/>
+      <c r="C460" s="4"/>
+      <c r="D460" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E460" s="5"/>
-      <c r="F460" s="5"/>
+      <c r="E460" s="4"/>
+      <c r="F460" s="4"/>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="5" t="s">
+      <c r="A461" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B461" s="5"/>
-      <c r="C461" s="5"/>
-      <c r="D461" s="5"/>
-      <c r="E461" s="5"/>
-      <c r="F461" s="5"/>
+      <c r="B461" s="4"/>
+      <c r="C461" s="4"/>
+      <c r="D461" s="4"/>
+      <c r="E461" s="4"/>
+      <c r="F461" s="4"/>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
@@ -7750,72 +7768,72 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="4" t="s">
+      <c r="A465" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B465" s="4"/>
-      <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
-      <c r="E465" s="4"/>
-      <c r="F465" s="4"/>
+      <c r="B465" s="5"/>
+      <c r="C465" s="5"/>
+      <c r="D465" s="5"/>
+      <c r="E465" s="5"/>
+      <c r="F465" s="5"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="5" t="s">
+      <c r="A466" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B466" s="5"/>
-      <c r="C466" s="5"/>
-      <c r="D466" s="5" t="s">
+      <c r="B466" s="4"/>
+      <c r="C466" s="4"/>
+      <c r="D466" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E466" s="5"/>
-      <c r="F466" s="5"/>
+      <c r="E466" s="4"/>
+      <c r="F466" s="4"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="5" t="s">
+      <c r="A467" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B467" s="5"/>
-      <c r="C467" s="5"/>
-      <c r="D467" s="5" t="s">
+      <c r="B467" s="4"/>
+      <c r="C467" s="4"/>
+      <c r="D467" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E467" s="5"/>
-      <c r="F467" s="5"/>
+      <c r="E467" s="4"/>
+      <c r="F467" s="4"/>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="5" t="s">
+      <c r="A468" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B468" s="5"/>
-      <c r="C468" s="5"/>
-      <c r="D468" s="5" t="s">
+      <c r="B468" s="4"/>
+      <c r="C468" s="4"/>
+      <c r="D468" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E468" s="5"/>
-      <c r="F468" s="5"/>
+      <c r="E468" s="4"/>
+      <c r="F468" s="4"/>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="5" t="s">
+      <c r="A469" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B469" s="5"/>
-      <c r="C469" s="5"/>
-      <c r="D469" s="5" t="s">
+      <c r="B469" s="4"/>
+      <c r="C469" s="4"/>
+      <c r="D469" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E469" s="5"/>
-      <c r="F469" s="5"/>
+      <c r="E469" s="4"/>
+      <c r="F469" s="4"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="5" t="s">
+      <c r="A470" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B470" s="5"/>
-      <c r="C470" s="5"/>
-      <c r="D470" s="5"/>
-      <c r="E470" s="5"/>
-      <c r="F470" s="5"/>
+      <c r="B470" s="4"/>
+      <c r="C470" s="4"/>
+      <c r="D470" s="4"/>
+      <c r="E470" s="4"/>
+      <c r="F470" s="4"/>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
@@ -7876,72 +7894,72 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="4" t="s">
+      <c r="A474" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B474" s="4"/>
-      <c r="C474" s="4"/>
-      <c r="D474" s="4"/>
-      <c r="E474" s="4"/>
-      <c r="F474" s="4"/>
+      <c r="B474" s="5"/>
+      <c r="C474" s="5"/>
+      <c r="D474" s="5"/>
+      <c r="E474" s="5"/>
+      <c r="F474" s="5"/>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="5" t="s">
+      <c r="A475" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B475" s="5"/>
-      <c r="C475" s="5"/>
-      <c r="D475" s="5" t="s">
+      <c r="B475" s="4"/>
+      <c r="C475" s="4"/>
+      <c r="D475" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E475" s="5"/>
-      <c r="F475" s="5"/>
+      <c r="E475" s="4"/>
+      <c r="F475" s="4"/>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="5" t="s">
+      <c r="A476" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B476" s="5"/>
-      <c r="C476" s="5"/>
-      <c r="D476" s="5" t="s">
+      <c r="B476" s="4"/>
+      <c r="C476" s="4"/>
+      <c r="D476" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E476" s="5"/>
-      <c r="F476" s="5"/>
+      <c r="E476" s="4"/>
+      <c r="F476" s="4"/>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="5" t="s">
+      <c r="A477" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B477" s="5"/>
-      <c r="C477" s="5"/>
-      <c r="D477" s="5" t="s">
+      <c r="B477" s="4"/>
+      <c r="C477" s="4"/>
+      <c r="D477" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E477" s="5"/>
-      <c r="F477" s="5"/>
+      <c r="E477" s="4"/>
+      <c r="F477" s="4"/>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="5" t="s">
+      <c r="A478" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B478" s="5"/>
-      <c r="C478" s="5"/>
-      <c r="D478" s="5" t="s">
+      <c r="B478" s="4"/>
+      <c r="C478" s="4"/>
+      <c r="D478" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E478" s="5"/>
-      <c r="F478" s="5"/>
+      <c r="E478" s="4"/>
+      <c r="F478" s="4"/>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="5" t="s">
+      <c r="A479" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B479" s="5"/>
-      <c r="C479" s="5"/>
-      <c r="D479" s="5"/>
-      <c r="E479" s="5"/>
-      <c r="F479" s="5"/>
+      <c r="B479" s="4"/>
+      <c r="C479" s="4"/>
+      <c r="D479" s="4"/>
+      <c r="E479" s="4"/>
+      <c r="F479" s="4"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
@@ -7996,72 +8014,72 @@
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="4" t="s">
+      <c r="A483" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B483" s="4"/>
-      <c r="C483" s="4"/>
-      <c r="D483" s="4"/>
-      <c r="E483" s="4"/>
-      <c r="F483" s="4"/>
+      <c r="B483" s="5"/>
+      <c r="C483" s="5"/>
+      <c r="D483" s="5"/>
+      <c r="E483" s="5"/>
+      <c r="F483" s="5"/>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="5" t="s">
+      <c r="A484" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B484" s="5"/>
-      <c r="C484" s="5"/>
-      <c r="D484" s="5" t="s">
+      <c r="B484" s="4"/>
+      <c r="C484" s="4"/>
+      <c r="D484" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E484" s="5"/>
-      <c r="F484" s="5"/>
+      <c r="E484" s="4"/>
+      <c r="F484" s="4"/>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="5" t="s">
+      <c r="A485" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B485" s="5"/>
-      <c r="C485" s="5"/>
-      <c r="D485" s="5" t="s">
+      <c r="B485" s="4"/>
+      <c r="C485" s="4"/>
+      <c r="D485" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E485" s="5"/>
-      <c r="F485" s="5"/>
+      <c r="E485" s="4"/>
+      <c r="F485" s="4"/>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="5" t="s">
+      <c r="A486" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B486" s="5"/>
-      <c r="C486" s="5"/>
-      <c r="D486" s="5" t="s">
+      <c r="B486" s="4"/>
+      <c r="C486" s="4"/>
+      <c r="D486" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E486" s="5"/>
-      <c r="F486" s="5"/>
+      <c r="E486" s="4"/>
+      <c r="F486" s="4"/>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="5" t="s">
+      <c r="A487" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B487" s="5"/>
-      <c r="C487" s="5"/>
-      <c r="D487" s="5" t="s">
+      <c r="B487" s="4"/>
+      <c r="C487" s="4"/>
+      <c r="D487" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E487" s="5"/>
-      <c r="F487" s="5"/>
+      <c r="E487" s="4"/>
+      <c r="F487" s="4"/>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="5" t="s">
+      <c r="A488" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B488" s="5"/>
-      <c r="C488" s="5"/>
-      <c r="D488" s="5"/>
-      <c r="E488" s="5"/>
-      <c r="F488" s="5"/>
+      <c r="B488" s="4"/>
+      <c r="C488" s="4"/>
+      <c r="D488" s="4"/>
+      <c r="E488" s="4"/>
+      <c r="F488" s="4"/>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
@@ -8090,12 +8108,14 @@
       <c r="B490" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C490" s="1"/>
+      <c r="C490" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="D490" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E490" s="1" t="s">
-        <v>284</v>
+        <v>298</v>
+      </c>
+      <c r="E490" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="F490" s="1" t="s">
         <v>51</v>
@@ -8106,10 +8126,10 @@
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F491" s="1" t="s">
         <v>30</v>
@@ -8117,17 +8137,466 @@
     </row>
   </sheetData>
   <mergeCells count="495">
-    <mergeCell ref="A488:C488"/>
-    <mergeCell ref="D488:F488"/>
-    <mergeCell ref="A483:F483"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="D484:F484"/>
-    <mergeCell ref="A485:C485"/>
-    <mergeCell ref="D485:F485"/>
-    <mergeCell ref="A486:C486"/>
-    <mergeCell ref="D486:F486"/>
-    <mergeCell ref="A487:C487"/>
-    <mergeCell ref="D487:F487"/>
+    <mergeCell ref="A429:F429"/>
+    <mergeCell ref="D434:F434"/>
+    <mergeCell ref="A434:C434"/>
+    <mergeCell ref="D433:F433"/>
+    <mergeCell ref="A433:C433"/>
+    <mergeCell ref="D432:F432"/>
+    <mergeCell ref="A432:C432"/>
+    <mergeCell ref="D431:F431"/>
+    <mergeCell ref="A431:C431"/>
+    <mergeCell ref="D430:F430"/>
+    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A422:C422"/>
+    <mergeCell ref="D422:F422"/>
+    <mergeCell ref="A423:C423"/>
+    <mergeCell ref="D423:F423"/>
+    <mergeCell ref="A424:C424"/>
+    <mergeCell ref="D424:F424"/>
+    <mergeCell ref="A425:C425"/>
+    <mergeCell ref="D425:F425"/>
+    <mergeCell ref="A414:C414"/>
+    <mergeCell ref="D414:F414"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="A421:C421"/>
+    <mergeCell ref="D421:F421"/>
+    <mergeCell ref="A409:F409"/>
+    <mergeCell ref="A410:C410"/>
+    <mergeCell ref="D410:F410"/>
+    <mergeCell ref="A411:C411"/>
+    <mergeCell ref="D411:F411"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="D412:F412"/>
+    <mergeCell ref="A413:C413"/>
+    <mergeCell ref="D413:F413"/>
+    <mergeCell ref="D390:F390"/>
+    <mergeCell ref="D389:F389"/>
+    <mergeCell ref="D388:F388"/>
+    <mergeCell ref="D380:F380"/>
+    <mergeCell ref="A390:C390"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="A392:C392"/>
+    <mergeCell ref="A387:F387"/>
+    <mergeCell ref="A388:C388"/>
+    <mergeCell ref="A389:C389"/>
+    <mergeCell ref="D392:F392"/>
+    <mergeCell ref="D391:F391"/>
+    <mergeCell ref="A376:C376"/>
+    <mergeCell ref="A377:C377"/>
+    <mergeCell ref="A378:C378"/>
+    <mergeCell ref="A379:C379"/>
+    <mergeCell ref="A380:C380"/>
+    <mergeCell ref="A367:C367"/>
+    <mergeCell ref="D367:F367"/>
+    <mergeCell ref="A368:C368"/>
+    <mergeCell ref="D368:F368"/>
+    <mergeCell ref="A369:C369"/>
+    <mergeCell ref="D369:F369"/>
+    <mergeCell ref="D379:F379"/>
+    <mergeCell ref="D378:F378"/>
+    <mergeCell ref="D377:F377"/>
+    <mergeCell ref="D376:F376"/>
+    <mergeCell ref="A375:F375"/>
+    <mergeCell ref="A366:C366"/>
+    <mergeCell ref="D366:F366"/>
+    <mergeCell ref="A358:C358"/>
+    <mergeCell ref="D358:F358"/>
+    <mergeCell ref="A353:F353"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="D354:F354"/>
+    <mergeCell ref="A355:C355"/>
+    <mergeCell ref="D355:F355"/>
+    <mergeCell ref="A356:C356"/>
+    <mergeCell ref="D356:F356"/>
+    <mergeCell ref="A357:C357"/>
+    <mergeCell ref="D357:F357"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A341:F341"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="D342:F342"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="D152:F152"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="D153:F153"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="D161:F161"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="D162:F162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="D185:F185"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="D188:F188"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="D196:F196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="D195:F195"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="A228:F228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="D242:F242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="A239:F239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="D240:F240"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="D244:F244"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="D253:F253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="D254:F254"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="D255:F255"/>
+    <mergeCell ref="A251:F251"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="D252:F252"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="D256:F256"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="D264:F264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="D265:F265"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="D266:F266"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="D263:F263"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="D267:F267"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="D275:F275"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="D276:F276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="D277:F277"/>
+    <mergeCell ref="A273:F273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="D274:F274"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="D288:F288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="D289:F289"/>
+    <mergeCell ref="A285:F285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="D286:F286"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="D290:F290"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="D298:F298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="D299:F299"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="D300:F300"/>
+    <mergeCell ref="A296:F296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="D297:F297"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="D301:F301"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="D309:F309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="D310:F310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="D308:F308"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="D312:F312"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="D321:F321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="D322:F322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="A319:F319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="D320:F320"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="D332:F332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="A330:F330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="D331:F331"/>
+    <mergeCell ref="A402:C402"/>
+    <mergeCell ref="D402:F402"/>
+    <mergeCell ref="A403:C403"/>
+    <mergeCell ref="D403:F403"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="A398:F398"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="D399:F399"/>
+    <mergeCell ref="A400:C400"/>
+    <mergeCell ref="D400:F400"/>
+    <mergeCell ref="A401:C401"/>
+    <mergeCell ref="D401:F401"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="D343:F343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="D344:F344"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="D345:F345"/>
+    <mergeCell ref="A346:C346"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="D365:F365"/>
+    <mergeCell ref="A364:F364"/>
+    <mergeCell ref="A365:C365"/>
+    <mergeCell ref="A438:F438"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="D439:F439"/>
+    <mergeCell ref="A440:C440"/>
+    <mergeCell ref="D440:F440"/>
+    <mergeCell ref="A441:C441"/>
+    <mergeCell ref="D441:F441"/>
+    <mergeCell ref="A442:C442"/>
+    <mergeCell ref="D442:F442"/>
+    <mergeCell ref="A443:C443"/>
+    <mergeCell ref="D443:F443"/>
+    <mergeCell ref="A474:F474"/>
+    <mergeCell ref="A475:C475"/>
+    <mergeCell ref="D475:F475"/>
+    <mergeCell ref="A476:C476"/>
+    <mergeCell ref="D476:F476"/>
+    <mergeCell ref="A477:C477"/>
+    <mergeCell ref="D477:F477"/>
+    <mergeCell ref="A461:C461"/>
+    <mergeCell ref="D461:F461"/>
+    <mergeCell ref="A465:F465"/>
+    <mergeCell ref="A466:C466"/>
+    <mergeCell ref="D466:F466"/>
+    <mergeCell ref="A467:C467"/>
+    <mergeCell ref="D467:F467"/>
+    <mergeCell ref="A468:C468"/>
+    <mergeCell ref="D468:F468"/>
+    <mergeCell ref="A469:C469"/>
+    <mergeCell ref="D469:F469"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="D470:F470"/>
     <mergeCell ref="A478:C478"/>
     <mergeCell ref="D478:F478"/>
     <mergeCell ref="A479:C479"/>
@@ -8152,466 +8621,17 @@
     <mergeCell ref="D459:F459"/>
     <mergeCell ref="A460:C460"/>
     <mergeCell ref="D460:F460"/>
-    <mergeCell ref="A443:C443"/>
-    <mergeCell ref="D443:F443"/>
-    <mergeCell ref="A474:F474"/>
-    <mergeCell ref="A475:C475"/>
-    <mergeCell ref="D475:F475"/>
-    <mergeCell ref="A476:C476"/>
-    <mergeCell ref="D476:F476"/>
-    <mergeCell ref="A477:C477"/>
-    <mergeCell ref="D477:F477"/>
-    <mergeCell ref="A461:C461"/>
-    <mergeCell ref="D461:F461"/>
-    <mergeCell ref="A465:F465"/>
-    <mergeCell ref="A466:C466"/>
-    <mergeCell ref="D466:F466"/>
-    <mergeCell ref="A467:C467"/>
-    <mergeCell ref="D467:F467"/>
-    <mergeCell ref="A468:C468"/>
-    <mergeCell ref="D468:F468"/>
-    <mergeCell ref="A469:C469"/>
-    <mergeCell ref="D469:F469"/>
-    <mergeCell ref="A470:C470"/>
-    <mergeCell ref="D470:F470"/>
-    <mergeCell ref="A438:F438"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="D439:F439"/>
-    <mergeCell ref="A440:C440"/>
-    <mergeCell ref="D440:F440"/>
-    <mergeCell ref="A441:C441"/>
-    <mergeCell ref="D441:F441"/>
-    <mergeCell ref="A442:C442"/>
-    <mergeCell ref="D442:F442"/>
-    <mergeCell ref="A402:C402"/>
-    <mergeCell ref="D402:F402"/>
-    <mergeCell ref="A403:C403"/>
-    <mergeCell ref="D403:F403"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="A398:F398"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="D399:F399"/>
-    <mergeCell ref="A400:C400"/>
-    <mergeCell ref="D400:F400"/>
-    <mergeCell ref="A401:C401"/>
-    <mergeCell ref="D401:F401"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="D343:F343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="D344:F344"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="D345:F345"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="D365:F365"/>
-    <mergeCell ref="A364:F364"/>
-    <mergeCell ref="A365:C365"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="D332:F332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="A330:F330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="D331:F331"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="D312:F312"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="D321:F321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="D322:F322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="A319:F319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="D320:F320"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="D301:F301"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="D309:F309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="D310:F310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="D308:F308"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="D290:F290"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="D298:F298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="D299:F299"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="D300:F300"/>
-    <mergeCell ref="A296:F296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="D297:F297"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="D287:F287"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="D288:F288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="D289:F289"/>
-    <mergeCell ref="A285:F285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="D286:F286"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="D267:F267"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="D275:F275"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="D276:F276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="D277:F277"/>
-    <mergeCell ref="A273:F273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="D274:F274"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="D256:F256"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="D264:F264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="D265:F265"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="D266:F266"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="D263:F263"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="D244:F244"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="D253:F253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="D254:F254"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="D255:F255"/>
-    <mergeCell ref="A251:F251"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="D252:F252"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="D241:F241"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="D242:F242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="A239:F239"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="D240:F240"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="A228:F228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="D218:F218"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="D199:F199"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="D188:F188"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="D196:F196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="D198:F198"/>
-    <mergeCell ref="A194:F194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="D195:F195"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="D185:F185"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="D186:F186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="D187:F187"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="D184:F184"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="D164:F164"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="D153:F153"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="D161:F161"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="D162:F162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="D152:F152"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="D128:F128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A341:F341"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="D342:F342"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A366:C366"/>
-    <mergeCell ref="D366:F366"/>
-    <mergeCell ref="A358:C358"/>
-    <mergeCell ref="D358:F358"/>
-    <mergeCell ref="A353:F353"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="D354:F354"/>
-    <mergeCell ref="A355:C355"/>
-    <mergeCell ref="D355:F355"/>
-    <mergeCell ref="A356:C356"/>
-    <mergeCell ref="D356:F356"/>
-    <mergeCell ref="A357:C357"/>
-    <mergeCell ref="D357:F357"/>
-    <mergeCell ref="A376:C376"/>
-    <mergeCell ref="A377:C377"/>
-    <mergeCell ref="A378:C378"/>
-    <mergeCell ref="A379:C379"/>
-    <mergeCell ref="A380:C380"/>
-    <mergeCell ref="A367:C367"/>
-    <mergeCell ref="D367:F367"/>
-    <mergeCell ref="A368:C368"/>
-    <mergeCell ref="D368:F368"/>
-    <mergeCell ref="A369:C369"/>
-    <mergeCell ref="D369:F369"/>
-    <mergeCell ref="D379:F379"/>
-    <mergeCell ref="D378:F378"/>
-    <mergeCell ref="D377:F377"/>
-    <mergeCell ref="D376:F376"/>
-    <mergeCell ref="A375:F375"/>
-    <mergeCell ref="D390:F390"/>
-    <mergeCell ref="D389:F389"/>
-    <mergeCell ref="D388:F388"/>
-    <mergeCell ref="D380:F380"/>
-    <mergeCell ref="A390:C390"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="A392:C392"/>
-    <mergeCell ref="A387:F387"/>
-    <mergeCell ref="A388:C388"/>
-    <mergeCell ref="A389:C389"/>
-    <mergeCell ref="D392:F392"/>
-    <mergeCell ref="D391:F391"/>
-    <mergeCell ref="A409:F409"/>
-    <mergeCell ref="A410:C410"/>
-    <mergeCell ref="D410:F410"/>
-    <mergeCell ref="A411:C411"/>
-    <mergeCell ref="D411:F411"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="D412:F412"/>
-    <mergeCell ref="A413:C413"/>
-    <mergeCell ref="D413:F413"/>
-    <mergeCell ref="A422:C422"/>
-    <mergeCell ref="D422:F422"/>
-    <mergeCell ref="A423:C423"/>
-    <mergeCell ref="D423:F423"/>
-    <mergeCell ref="A424:C424"/>
-    <mergeCell ref="D424:F424"/>
-    <mergeCell ref="A425:C425"/>
-    <mergeCell ref="D425:F425"/>
-    <mergeCell ref="A414:C414"/>
-    <mergeCell ref="D414:F414"/>
-    <mergeCell ref="A420:F420"/>
-    <mergeCell ref="A421:C421"/>
-    <mergeCell ref="D421:F421"/>
-    <mergeCell ref="A429:F429"/>
-    <mergeCell ref="D434:F434"/>
-    <mergeCell ref="A434:C434"/>
-    <mergeCell ref="D433:F433"/>
-    <mergeCell ref="A433:C433"/>
-    <mergeCell ref="D432:F432"/>
-    <mergeCell ref="A432:C432"/>
-    <mergeCell ref="D431:F431"/>
-    <mergeCell ref="A431:C431"/>
-    <mergeCell ref="D430:F430"/>
-    <mergeCell ref="A430:C430"/>
+    <mergeCell ref="A488:C488"/>
+    <mergeCell ref="D488:F488"/>
+    <mergeCell ref="A483:F483"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="D484:F484"/>
+    <mergeCell ref="A485:C485"/>
+    <mergeCell ref="D485:F485"/>
+    <mergeCell ref="A486:C486"/>
+    <mergeCell ref="D486:F486"/>
+    <mergeCell ref="A487:C487"/>
+    <mergeCell ref="D487:F487"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
